--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>?OrdemCampo=Codigo&amp;OrdemSort=DESC&amp;Pagina=1&amp;Qtdpagina=50&amp;</t>
+          <t>?OrdemCampo=Codigo&amp;OrdemSort=DESC&amp;Pagina=1&amp;Qtdpagina=5000&amp;</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>?OrdemCampo=Nome&amp;OrdemSort=DESC&amp;Pagina=1&amp;Qtdpagina=50&amp;</t>
+          <t>?OrdemCampo=Nome&amp;OrdemSort=DESC&amp;Pagina=1&amp;Qtdpagina=5000&amp;</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>?OrdemCampo=CPF&amp;OrdemSort=DESC&amp;Pagina=1&amp;Qtdpagina=50&amp;</t>
+          <t>?OrdemCampo=CPF&amp;OrdemSort=DESC&amp;Pagina=1&amp;Qtdpagina=5000&amp;</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>?OrdemCampo=QtdCreditos&amp;OrdemSort=DESC&amp;Pagina=1&amp;Qtdpagina=50&amp;</t>
+          <t>?OrdemCampo=QtdCreditos&amp;OrdemSort=DESC&amp;Pagina=1&amp;Qtdpagina=5000&amp;</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -674,7 +674,7 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 5 segundos</t>
+                                    Última Checagem á 0 segundos</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -717,12 +717,13 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>R$ 58,08</t>
+          <t>R$ 70,08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 8 segundos</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -818,7 +819,8 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 10 segundos</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -861,13 +863,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>R$ 103,68</t>
+          <t>R$ 105,12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 1 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -915,8 +916,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 2 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1060,8 +1060,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 4 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1104,13 +1103,13 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>R$ 115,22</t>
+          <t>R$ 120,80</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+                                    Última Checagem á 7 segundos</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1297,7 +1296,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>R$ 125,61</t>
+          <t>R$ 139,72</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1441,7 +1440,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>R$ 51,98</t>
+          <t>R$ 70,88</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1590,7 +1589,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ocupado</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1681,7 +1680,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>R$ 44,94</t>
+          <t>R$ 51,66</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1831,7 +1830,7 @@
       <c r="F29" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 1 segundos</t>
+                                    Última Checagem á 7 segundos</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1927,8 +1926,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 7 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1977,7 +1975,7 @@
       <c r="F32" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 1 segundos</t>
+                                    Última Checagem á 5 segundos</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2169,8 +2167,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 1 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2501,7 +2498,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>R$ 21,00</t>
+          <t>R$ 31,08</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2698,7 +2695,8 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 10 segundos</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2794,7 +2792,8 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 4 segundos</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2842,7 +2841,8 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 10 segundos</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>R$ 249,90</t>
+          <t>R$ 273,00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2958,6 +2958,3470 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Cigana Luz</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=210</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>495.723.698-49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Cigana Luziara</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=150</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>092.809.268-29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>R$ 44,64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 10 segundos</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Cigana Madalena</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=239</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>070.343.957-05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Cigana Manuela</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=176</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>781.764.924-34</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Cigana Mariah</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=248</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>009.143.967-14</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Cigana Natasha</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=181</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>131.946.738-58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>R$ 48,72</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 10 segundos</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Cigana Pérola</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=229</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>097.881.807-52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Cigana Rosa</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=69</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>859.082.159-53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>R$ 51,36</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Cigana Rosita</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=275</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>152.152.156-17</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Cigana Safira</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=35</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>480.341.128-01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Cigana Salomé</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=242</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>671.468.217-49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Cigana Samara</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=153</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>480.341.128-10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Cigana Sol</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=55</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>991.379.097-20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>R$ 32,90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Cigana Sulamita</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=277</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>058.874.847-12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>R$ 5,01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Cigana Zattara</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=227</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>023.594.097-60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Cigano Andaluz</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=126</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>023.594.097-60</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Cigano Muller</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=209</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>188.503.338-22</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>R$ 19,96</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Cigano Ramiro</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=244</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>422.797.918-89</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Cigano Saulo</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=252</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>345.169.758-07</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Cigano Tarim</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=196</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>141.583.437-71</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>R$ 2,73</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Cleópatra Cigana</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=288</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>095.542.319-89</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>R$ 17,64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Cronos Tarólogo</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=240</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>138.057.766-75</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Dalila</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=270</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>109.247.989-98</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>R$ 30,24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 8 segundos</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Dama Carmen</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=179</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>130.080.156-54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>R$ 2,52</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Dicearco</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=226</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>163.050.176-03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 6 segundos</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Esmeralda</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=29</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>400.637.918-89</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Estella</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=225</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>128.576.748-99</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Esther</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=262</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>028.579.121-45</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Feiticeiro Morgan</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=211</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>976.182.170-68</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Fréia</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=245</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>060.513.704-80</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Frigga Cigana</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=263</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>381.683.658-52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>R$ 17,64</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 6 segundos</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Gaya Cigana</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=234</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>072.879.826-33</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Hanna</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=269</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>104.827.449-79</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Higor D`Oxala</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=19</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>341.635.858-93</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>R$ 260,00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Ísis</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=216</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>135.180.778-13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Jana</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=251</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>083.156.417-27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>R$ 25,62</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 3 segundos</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Kabila</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=25</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>031.637.788-01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Kyara</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=61</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>040.725.688-13</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>R$ 2,40</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 5 segundos</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Lilith</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=189</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>395.446.878-66</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>R$ 21,84</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 6 segundos</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Lua D´Oxum</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=217</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>291.479.608-09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Madalenah</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=249</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>403.291.178-90</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mago Gabriel</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=286</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>170.718.756-85</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Magus</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=202</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>341.618.268-50</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>R$ 24,50</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Médium Amora</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=20</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>294.298.332</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>R$ 49,28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mirela Dourada</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=267</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>054.335.118-12</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>R$ 6,72</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 5 segundos</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Mistica Brida</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=81</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>447.198.599-0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Mística Kali</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=272</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>129.447.526-69</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Místico Raj</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=146</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>077.814.597-25</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>R$ 41,76</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 7 segundos</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Nicolas</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=32</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>135.629.258-59</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>R$ 15,84</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Niina</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=260</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>137.195.037-71</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>R$ 5,46</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Pandora</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=230</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>118.735.717-04</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 5 segundos</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Pitágoras</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=213</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>138.057.576-11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Radina</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=34</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>703.439.570-5</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Rosa Padilha</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=282</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>329.206.948-39</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>R$ 18,39</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Sacerdotisa Nix</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=173</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>022.104.229-65</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Sara Cornalina</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=259</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>381.517.928-92</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Sara D’ Osum</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=145</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>027.416.297-06</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=212</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>368.895.498-05</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Sensitiva Quitéria</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=52</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>221.006.378-78</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>R$ 274,34</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Ocupado</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Soha</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=276</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>230.952.148-55</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>R$ 10,50</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Sulamita</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=119</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>074.209.057-46</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>R$ 45,12</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Sumaya do Oriente</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=215</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>395.754.918-31</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Taróloga Évora</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=243</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>065.077.297-20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Taróloga Milly</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=258</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>427.253.498-00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>testeatt1</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=30</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Thata Hindi</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=268</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>382.109.708-60</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Théo</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=261</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>094.492.653-30</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>R$ 7,14</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Vidente Lana</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=214</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>038.066.452-64</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>R$ 13,44</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 3 segundos</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Wilka</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=257</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>400.637.188-9</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Wladimir</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=255</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>156.442.147-37</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Yara</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=237</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>103.002.409-02</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Zafira</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=235</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>373.107.748-50</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -668,13 +668,13 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>R$ 49,14</t>
+          <t>R$ 57,12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 0 segundos</t>
+                                    Última Checagem á 2 segundos</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -717,13 +717,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>R$ 70,08</t>
+          <t>R$ 82,56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 8 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -766,7 +765,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>R$ 44,94</t>
+          <t>R$ 55,86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -814,13 +813,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>R$ 13,44</t>
+          <t>R$ 16,38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 10 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -863,12 +861,13 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>R$ 105,12</t>
+          <t>R$ 116,64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 3 segundos</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1060,7 +1059,8 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 2 segundos</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1103,13 +1103,13 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>R$ 120,80</t>
+          <t>R$ 130,44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 7 segundos</t>
+                                    Última Checagem á 5 segundos</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>R$ 128,96</t>
+          <t>R$ 140,92</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>R$ 139,72</t>
+          <t>R$ 144,27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 2,52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>R$ 83,20</t>
+          <t>R$ 102,44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>R$ 16,80</t>
+          <t>R$ 21,84</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>R$ 51,66</t>
+          <t>R$ 57,54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>R$ 28,80</t>
+          <t>R$ 36,96</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1921,12 +1921,13 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>R$ 99,68</t>
+          <t>R$ 114,24</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 6 segundos</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1969,13 +1970,13 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>R$ 8,40</t>
+          <t>R$ 10,50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 5 segundos</t>
+                                    Última Checagem á 0 segundos</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2167,7 +2168,8 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 3 segundos</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2215,7 +2217,8 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 6 segundos</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2306,7 +2309,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>R$ 77,28</t>
+          <t>R$ 86,94</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2690,13 +2693,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>R$ 29,76</t>
+          <t>R$ 32,82</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 10 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2792,8 +2794,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 4 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2841,8 +2842,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 10 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>R$ 273,00</t>
+          <t>R$ 281,82</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3029,13 +3029,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>R$ 44,64</t>
+          <t>R$ 48,00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 10 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3227,8 +3226,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 10 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3319,7 +3317,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>R$ 51,36</t>
+          <t>R$ 59,52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4039,13 +4037,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>R$ 30,24</t>
+          <t>R$ 46,62</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 8 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4136,13 +4133,13 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 6,72</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 6 segundos</t>
+                                    Última Checagem á 1 segundos</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4431,7 +4428,7 @@
       <c r="F83" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 6 segundos</t>
+                                    Última Checagem á 8 segundos</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4570,7 +4567,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>R$ 260,00</t>
+          <t>R$ 267,28</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4666,13 +4663,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>R$ 25,62</t>
+          <t>R$ 29,82</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4769,7 +4765,7 @@
       <c r="F90" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 5 segundos</t>
+                                    Última Checagem á 7 segundos</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5010,7 +5006,8 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 3 segundos</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -5107,7 +5104,7 @@
       <c r="F97" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 5 segundos</t>
+                                    Última Checagem á 6 segundos</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5396,8 +5393,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 5 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5776,12 +5772,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>R$ 274,34</t>
+          <t>R$ 288,62</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Ocupado</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5829,7 +5825,8 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 1 segundos</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5872,7 +5869,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>R$ 45,12</t>
+          <t>R$ 54,24</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6210,7 +6207,7 @@
       <c r="F120" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+                                    Última Checagem á 6 segundos</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">

--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,32 +552,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abele</t>
+          <t>Adara</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=250</t>
+          <t>Pg.Edicao.php?Codigo=134</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>109.284.207-10</t>
+          <t>534.222.838-70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 230,40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 9 segundos</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -600,27 +601,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adaline</t>
+          <t>Agatha Sensitiva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=223</t>
+          <t>Pg.Edicao.php?Codigo=15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>356.434.148-05</t>
+          <t>140.266.778-77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 190,32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -648,33 +649,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adara</t>
+          <t>Aidê Cigana</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=247</t>
+          <t>Pg.Edicao.php?Codigo=172</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>534.222.838-70</t>
+          <t>332.110.268-43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>R$ 57,12</t>
+          <t>R$ 26,40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 2 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -697,27 +697,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Adna Cigana</t>
+          <t>Aisha Mística</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=99</t>
+          <t>Pg.Edicao.php?Codigo=184</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>022.110.677-43</t>
+          <t>333.985.298-79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>R$ 82,56</t>
+          <t>R$ 106,48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -745,27 +745,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aguida Cigana</t>
+          <t>Akira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=273</t>
+          <t>Pg.Edicao.php?Codigo=121</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>239.609.508-02</t>
+          <t>087.903.607-96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>R$ 55,86</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -793,27 +793,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alba</t>
+          <t>Alba Cigana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=231</t>
+          <t>Pg.Edicao.php?Codigo=178</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>080.373.609-62</t>
+          <t>239.609.508-02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>R$ 16,38</t>
+          <t>R$ 30,24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -841,33 +841,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Allano D´Ogum</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=54</t>
+          <t>Pg.Edicao.php?Codigo=100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>478.756.405-63</t>
+          <t>042.734.029-20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>R$ 116,64</t>
+          <t>R$ 148,32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -890,32 +889,33 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alma</t>
+          <t>Alister</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=279</t>
+          <t>Pg.Edicao.php?Codigo=143</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>839.062.159-20</t>
+          <t>092.473.537-69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>R$ 23,94</t>
+          <t>R$ 15,12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 8 segundos</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -938,27 +938,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amabile Cigana</t>
+          <t>Althea</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=194</t>
+          <t>Pg.Edicao.php?Codigo=159</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>382.762.418-59</t>
+          <t>277.436.568-61</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>R$ 17,64</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -986,27 +986,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Amaira Cartomante</t>
+          <t>Amabile</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=264</t>
+          <t>Pg.Edicao.php?Codigo=156</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>117.255.287-89</t>
+          <t>486.717.578-11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 65,02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1034,33 +1034,33 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Amala</t>
+          <t>Ananda de Oxum</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=284</t>
+          <t>Pg.Edicao.php?Codigo=179</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>904.393.251-53</t>
+          <t>080.373.609-62</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>R$ 44,94</t>
+          <t>R$ 141,60</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 2 segundos</t>
+                                    Última Checagem á 8 segundos</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1083,33 +1083,33 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Amaya</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=266</t>
+          <t>Pg.Edicao.php?Codigo=26</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>844.106.049-53</t>
+          <t>336.455.648-29</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>R$ 130,44</t>
+          <t>R$ 838,24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 5 segundos</t>
+                                    Última Checagem á 8 segundos</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1132,22 +1132,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Amy Dantalion</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=190</t>
+          <t>Pg.Edicao.php?Codigo=175</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>861.369.090-49</t>
+          <t>373.914.868-33</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1180,27 +1180,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Angelita</t>
+          <t>Aretusa Cigana</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=182</t>
+          <t>Pg.Edicao.php?Codigo=157</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>093.859.127-47</t>
+          <t>063.416.498-86</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 74,09</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1228,27 +1228,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Anna Médium</t>
+          <t>Ariel Cigana</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=43</t>
+          <t>Pg.Edicao.php?Codigo=176</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>226.786.878-48</t>
+          <t>382.762.418-59</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>R$ 140,92</t>
+          <t>R$ 6,24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1276,32 +1276,33 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ariella do Oriente</t>
+          <t>Artemis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=165</t>
+          <t>Pg.Edicao.php?Codigo=164</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>008.761.297-69</t>
+          <t>105.329.709-26</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>R$ 144,27</t>
+          <t>R$ 11,87</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 1 segundos</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1324,32 +1325,33 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Athena</t>
+          <t>Ava Faro</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=114</t>
+          <t>Pg.Edicao.php?Codigo=183</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>019.035.750-95</t>
+          <t>839.062.159-20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>R$ 12,48</t>
+          <t>R$ 64,48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 2 segundos</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1372,27 +1374,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ayla</t>
+          <t>Aylla</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=208</t>
+          <t>Pg.Edicao.php?Codigo=18</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>095.568.707-17</t>
+          <t>520.992.078-01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>R$ 2,52</t>
+          <t>R$ 33,80</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1420,27 +1422,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aymê D Osun</t>
+          <t>Bruxa Agnes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=228</t>
+          <t>Pg.Edicao.php?Codigo=144</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>226.786.878-48</t>
+          <t>004.295.250-60</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>R$ 70,88</t>
+          <t>R$ 151,20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1468,27 +1470,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ayrah</t>
+          <t>Bruxa Athena</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=283</t>
+          <t>Pg.Edicao.php?Codigo=145</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>317.770.208-08</t>
+          <t>357.234.208-28</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>R$ 1,68</t>
+          <t>R$ 208,80</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1516,32 +1518,33 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Beatrice de Yemanjá</t>
+          <t>Bruxa Celeste</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=33</t>
+          <t>Pg.Edicao.php?Codigo=98</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>006.877.098-73</t>
+          <t>444.277.598-23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>R$ 102,44</t>
+          <t>R$ 30,80</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 7 segundos</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1564,27 +1567,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Bruxa Hay Lin</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=218</t>
+          <t>Pg.Edicao.php?Codigo=94</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>080.146.496-05</t>
+          <t>030.147.910-08</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>R$ 21,84</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1612,27 +1615,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bridget</t>
+          <t>Bruxa Hera</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=22</t>
+          <t>Pg.Edicao.php?Codigo=187</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>268.869.558-45</t>
+          <t>041.059.625-66</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>R$ 9,12</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1660,27 +1663,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Brisa</t>
+          <t>Bruxa Mulambo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=285</t>
+          <t>Pg.Edicao.php?Codigo=186</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>146.681.777-17</t>
+          <t>421.146.258-00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>R$ 57,54</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1708,27 +1711,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bruxa Zoraide</t>
+          <t>Carmencita</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=191</t>
+          <t>Pg.Edicao.php?Codigo=56</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>004.295.250-60</t>
+          <t>833.172.877-72</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>R$ 42,00</t>
+          <t>R$ 176,64</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1756,27 +1759,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Carmem</t>
+          <t>Castiel</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=97</t>
+          <t>Pg.Edicao.php?Codigo=29</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>000.000.000-00</t>
+          <t>341.635.858-93</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 188,64</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1804,33 +1807,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cigana Agatha</t>
+          <t>César</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=158</t>
+          <t>Pg.Edicao.php?Codigo=25</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>119.442.576-72</t>
+          <t>135.629.258-59</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>R$ 36,96</t>
+          <t>R$ 122,40</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 7 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1853,27 +1855,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cigana Alma</t>
+          <t>Cigana Alzira</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=221</t>
+          <t>Pg.Edicao.php?Codigo=198</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>018.457.950-32</t>
+          <t>193.909.028-86</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 4,80</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1901,33 +1903,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cigana Amanda</t>
+          <t>Cigana Ana</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=10</t>
+          <t>Pg.Edicao.php?Codigo=138</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>189.015.628-04</t>
+          <t>704.732.282-54</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>R$ 114,24</t>
+          <t>R$ 191,80</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 6 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1950,33 +1951,33 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cigana Aylla</t>
+          <t>Cigana Carmem</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=281</t>
+          <t>Pg.Edicao.php?Codigo=78</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>372.230.918-27</t>
+          <t>904.393.251-53</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>R$ 10,50</t>
+          <t>R$ 43,20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 0 segundos</t>
+                                    Última Checagem á 3 segundos</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1999,32 +2000,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cigana Bárbara</t>
+          <t>Cigana Clara</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=187</t>
+          <t>Pg.Edicao.php?Codigo=194</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>338.641.458-30</t>
+          <t>427.253.498-00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 12,92</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 1 segundos</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2047,27 +2049,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cigana Briza</t>
+          <t>Cigana Clarissa</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=110</t>
+          <t>Pg.Edicao.php?Codigo=58</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>103.688.977-70</t>
+          <t>224.996.348-71</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>R$ 91,20</t>
+          <t>R$ 185,72</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2095,32 +2097,33 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cigana Carmellita</t>
+          <t>Cigana Cristal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=254</t>
+          <t>Pg.Edicao.php?Codigo=31</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>073.183.556-51</t>
+          <t>514.672.528-40</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 45,60</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 1 segundos</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2143,33 +2146,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cigana Cassandra</t>
+          <t>Cigana Delins</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=195</t>
+          <t>Pg.Edicao.php?Codigo=128</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>078.404.617-43</t>
+          <t>367.219.298-80</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>R$ 3,78</t>
+          <t>R$ 85,92</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2192,33 +2194,32 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cigana Celene</t>
+          <t>Cigana D’Las Rosas</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=287</t>
+          <t>Pg.Edicao.php?Codigo=189</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>044.156.997-82</t>
+          <t>751.251.291-00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>R$ 45,78</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 6 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2241,32 +2242,32 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cigana Consuela</t>
+          <t>Cigana Estrela da Noite</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=58</t>
+          <t>Pg.Edicao.php?Codigo=191</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>480.141.538-55</t>
+          <t>291.479.608-09</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 47,52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Ocupado</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2289,27 +2290,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cigana Crystal</t>
+          <t>Cigana Helena</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=233</t>
+          <t>Pg.Edicao.php?Codigo=23</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>352.663.778-44</t>
+          <t>420.097.118-66</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>R$ 86,94</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2337,27 +2338,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cigana da Estrada</t>
+          <t>Cigana Naya</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=280</t>
+          <t>Pg.Edicao.php?Codigo=141</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>408.408.878-17</t>
+          <t>092.809.268-29</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 42,00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2385,32 +2386,33 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cigana Dandara da Estrada</t>
+          <t>Cigana Rosa</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=207</t>
+          <t>Pg.Edicao.php?Codigo=182</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>297.430.488-55</t>
+          <t>230.952.148-55</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 30,96</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 4 segundos</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2433,27 +2435,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cigana das Rosas Vermelhas</t>
+          <t>Cigana Sarah</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=278</t>
+          <t>Pg.Edicao.php?Codigo=193</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>013.734.020-67</t>
+          <t>157.707.058-50</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 62,12</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2481,27 +2483,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cigana de Padilha</t>
+          <t>Cigana Sarita</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=265</t>
+          <t>Pg.Edicao.php?Codigo=197</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>704.732.282-54</t>
+          <t>177.247.627-75</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>R$ 31,08</t>
+          <t>R$ 1,68</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2529,27 +2531,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cigana do Ouro</t>
+          <t>Cigana Sophia</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=253</t>
+          <t>Pg.Edicao.php?Codigo=167</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>163.816.018-09</t>
+          <t>282.460.278-32</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 132,48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2577,27 +2579,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cigana Duan</t>
+          <t>Cigana Tamirez</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=180</t>
+          <t>Pg.Edicao.php?Codigo=196</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>422.792.698-05</t>
+          <t>128.576.748-99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 16,24</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2625,27 +2627,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cigana Holanda</t>
+          <t>Cigana Zaylla</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=256</t>
+          <t>Pg.Edicao.php?Codigo=153</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>718.258.034-98</t>
+          <t>269.375.448-80</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 13,52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2673,27 +2675,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cigana Jamile</t>
+          <t>Cigano Ameo</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=246</t>
+          <t>Pg.Edicao.php?Codigo=190</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>048.056.417-28</t>
+          <t>179.956.907-11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>R$ 32,82</t>
+          <t>R$ 135,24</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2721,27 +2723,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cigana Jasmin</t>
+          <t>Cigano Belmiro</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=274</t>
+          <t>Pg.Edicao.php?Codigo=71</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>480.141.538-55</t>
+          <t>050.698.125-80</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>R$ 8,20</t>
+          <t>R$ 426,60</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2769,27 +2771,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cigana Jurema</t>
+          <t>Cigano Paulo</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=72</t>
+          <t>Pg.Edicao.php?Codigo=149</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>483.724.985-04</t>
+          <t>060.041.077-35</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>R$ 9,88</t>
+          <t>R$ 394,24</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2817,43 +2819,39 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cigana Kayla</t>
+          <t>Consultas Avaliativas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=137</t>
+          <t>Pg.Edicao.php?Codigo=19</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>333.468.258-76</t>
+          <t>R$ -3,50</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>R$ 15,84</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2865,32 +2863,33 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cigana Livia</t>
+          <t>Elisa de Iansã</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=48</t>
+          <t>Pg.Edicao.php?Codigo=185</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>844.258.490-00</t>
+          <t>044.156.997-82</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>R$ 281,82</t>
+          <t>R$ 99,36</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 2 segundos</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2913,27 +2912,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cigana Lua</t>
+          <t>Emeraude</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=199</t>
+          <t>Pg.Edicao.php?Codigo=181</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>503.311.468-94</t>
+          <t>454.952.008-61</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 60,28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2961,22 +2960,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cigana Luz</t>
+          <t>Flor de Lis</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=210</t>
+          <t>Pg.Edicao.php?Codigo=180</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>495.723.698-49</t>
+          <t>429.202.818-44</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3009,27 +3008,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cigana Luziara</t>
+          <t>Gitano Edu</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=150</t>
+          <t>Pg.Edicao.php?Codigo=174</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>092.809.268-29</t>
+          <t>026.230.347-70</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>R$ 48,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3057,32 +3056,33 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cigana Madalena</t>
+          <t>Inaê</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=239</t>
+          <t>Pg.Edicao.php?Codigo=28</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>070.343.957-05</t>
+          <t>140.003.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 303,68</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 3 segundos</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3105,22 +3105,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cigana Manuela</t>
+          <t>Joanna Sensitiva</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=176</t>
+          <t>Pg.Edicao.php?Codigo=87</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>781.764.924-34</t>
+          <t>066.669.589-00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3153,27 +3153,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>112</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cigana Mariah</t>
+          <t>Kayra</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=248</t>
+          <t>Pg.Edicao.php?Codigo=112</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>009.143.967-14</t>
+          <t>333.468.258-76</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 21,32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3201,27 +3201,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cigana Natasha</t>
+          <t>Laia</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=181</t>
+          <t>Pg.Edicao.php?Codigo=177</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>131.946.738-58</t>
+          <t>233.812.378-61</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>R$ 48,72</t>
+          <t>R$ 2,08</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3249,27 +3249,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cigana Pérola</t>
+          <t>Luna Cigana</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=229</t>
+          <t>Pg.Edicao.php?Codigo=188</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>097.881.807-52</t>
+          <t>103.372.017-81</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 7,68</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3297,27 +3297,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cigana Rosa</t>
+          <t>Maria de Oyá</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=69</t>
+          <t>Pg.Edicao.php?Codigo=168</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>859.082.159-53</t>
+          <t>671.468.217-49</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>R$ 59,52</t>
+          <t>R$ 1,56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3345,27 +3345,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cigana Rosita</t>
+          <t>Merlia</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=275</t>
+          <t>Pg.Edicao.php?Codigo=60</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>152.152.156-17</t>
+          <t>107.833.089-14</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 130,52</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3393,27 +3393,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cigana Safira</t>
+          <t>Mística Hanna</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=35</t>
+          <t>Pg.Edicao.php?Codigo=160</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>480.341.128-01</t>
+          <t>713.543.1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 482,65</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3441,27 +3441,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cigana Salomé</t>
+          <t>Mística Kally</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=242</t>
+          <t>Pg.Edicao.php?Codigo=142</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>671.468.217-49</t>
+          <t>746.674.400-15</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 36,48</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3489,27 +3489,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cigana Samara</t>
+          <t>Mística Pandora</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=153</t>
+          <t>Pg.Edicao.php?Codigo=110</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>480.341.128-10</t>
+          <t>443.012.598-80</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 63,44</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3537,27 +3537,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cigana Sol</t>
+          <t>Natasha Cigana</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=55</t>
+          <t>Pg.Edicao.php?Codigo=102</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>991.379.097-20</t>
+          <t>131.946.738-58</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>R$ 32,90</t>
+          <t>R$ 144,56</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3585,27 +3585,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cigana Sulamita</t>
+          <t>Rosa Maria</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=277</t>
+          <t>Pg.Edicao.php?Codigo=109</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>058.874.847-12</t>
+          <t>104.767.004-69</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>R$ 5,01</t>
+          <t>R$ 252,20</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3633,27 +3633,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cigana Zattara</t>
+          <t>Safira</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=227</t>
+          <t>Pg.Edicao.php?Codigo=21</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>023.594.097-60</t>
+          <t>128.318.037-56</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 30,40</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3681,27 +3681,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cigano Andaluz</t>
+          <t>Samylla</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=126</t>
+          <t>Pg.Edicao.php?Codigo=73</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>023.594.097-60</t>
+          <t>015.289.160-93</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 60,32</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3729,27 +3729,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cigano Muller</t>
+          <t>Sensitiva Esmeralda</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=209</t>
+          <t>Pg.Edicao.php?Codigo=139</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>188.503.338-22</t>
+          <t>079.832.913-02</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>R$ 19,96</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3777,27 +3777,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cigano Ramiro</t>
+          <t>Sensitiva Ísis</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=244</t>
+          <t>Pg.Edicao.php?Codigo=154</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>422.797.918-89</t>
+          <t>095.568.707-17</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 7,56</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3825,43 +3825,39 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cigano Saulo</t>
+          <t>testeatt1 - NÃO REMOVER</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=252</t>
+          <t>Pg.Edicao.php?Codigo=32</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>345.169.758-07</t>
+          <t>R$ -12,00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3873,32 +3869,33 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cigano Tarim</t>
+          <t>Vênus</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=196</t>
+          <t>Pg.Edicao.php?Codigo=155</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>141.583.437-71</t>
+          <t>038.066.452-64</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>R$ 2,73</t>
+          <t>R$ 49,14</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 4 segundos</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3921,32 +3918,33 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cleópatra Cigana</t>
+          <t>Vidente Cassandra</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=288</t>
+          <t>Pg.Edicao.php?Codigo=192</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>095.542.319-89</t>
+          <t>378.944.738-20</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>R$ 17,64</t>
+          <t>R$ 374,40</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 10 segundos</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3969,22 +3967,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cronos Tarólogo</t>
+          <t>Vidente Thomàs</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=240</t>
+          <t>Pg.Edicao.php?Codigo=14</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>138.057.766-75</t>
+          <t>377.875.738-56</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4017,27 +4015,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Dalila</t>
+          <t>Xamã Tarólogo</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=270</t>
+          <t>Pg.Edicao.php?Codigo=117</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>109.247.989-98</t>
+          <t>180.743.808-23</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>R$ 46,62</t>
+          <t>R$ 8,84</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4065,27 +4063,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Dama Carmen</t>
+          <t>Zuri Cigana (se demitiu)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=179</t>
+          <t>Pg.Edicao.php?Codigo=195</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>130.080.156-54</t>
+          <t>388.305.758-44</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>R$ 2,52</t>
+          <t>R$ 23,52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4110,2315 +4108,6 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Dicearco</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=226</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>163.050.176-03</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>R$ 6,72</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Online, 
-                                    Última Checagem á 1 segundos</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Esmeralda</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=29</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>400.637.918-89</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Estella</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=225</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>128.576.748-99</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Esther</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=262</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>028.579.121-45</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Feiticeiro Morgan</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=211</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>976.182.170-68</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Fréia</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=245</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>060.513.704-80</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Frigga Cigana</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=263</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>381.683.658-52</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>R$ 17,64</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Online, 
-                                    Última Checagem á 8 segundos</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Gaya Cigana</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=234</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>072.879.826-33</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Hanna</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=269</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>104.827.449-79</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Higor D`Oxala</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=19</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>341.635.858-93</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>R$ 267,28</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Ísis</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=216</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>135.180.778-13</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=251</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>083.156.417-27</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>R$ 29,82</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Kabila</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=25</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>031.637.788-01</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Kyara</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=61</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>040.725.688-13</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>R$ 2,40</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Online, 
-                                    Última Checagem á 7 segundos</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Lilith</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=189</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>395.446.878-66</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>R$ 21,84</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Online, 
-                                    Última Checagem á 6 segundos</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Lua D´Oxum</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=217</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>291.479.608-09</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Madalenah</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=249</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>403.291.178-90</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>286</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Mago Gabriel</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=286</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>170.718.756-85</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Magus</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=202</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>341.618.268-50</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>R$ 24,50</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Online, 
-                                    Última Checagem á 3 segundos</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Médium Amora</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=20</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>294.298.332</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>R$ 49,28</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>267</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Mirela Dourada</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=267</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>054.335.118-12</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>R$ 6,72</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Online, 
-                                    Última Checagem á 6 segundos</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Mistica Brida</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=81</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>447.198.599-0</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Mística Kali</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=272</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>129.447.526-69</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Místico Raj</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=146</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>077.814.597-25</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>R$ 41,76</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Online, 
-                                    Última Checagem á 7 segundos</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Nicolas</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=32</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>135.629.258-59</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>R$ 15,84</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Niina</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=260</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>137.195.037-71</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>R$ 5,46</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Pandora</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=230</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>118.735.717-04</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Pitágoras</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=213</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>138.057.576-11</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Radina</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=34</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>703.439.570-5</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Rosa Padilha</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=282</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>329.206.948-39</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>R$ 18,39</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Sacerdotisa Nix</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=173</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>022.104.229-65</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Sara Cornalina</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=259</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>381.517.928-92</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Sara D’ Osum</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=145</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>027.416.297-06</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=212</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>368.895.498-05</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Sensitiva Quitéria</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=52</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>221.006.378-78</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>R$ 288,62</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>276</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Soha</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=276</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>230.952.148-55</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>R$ 10,50</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Online, 
-                                    Última Checagem á 1 segundos</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Sulamita</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=119</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>074.209.057-46</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>R$ 54,24</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Sumaya do Oriente</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=215</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>395.754.918-31</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Taróloga Évora</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=243</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>065.077.297-20</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Taróloga Milly</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=258</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>427.253.498-00</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>testeatt1</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=30</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>268</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Thata Hindi</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=268</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>382.109.708-60</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Théo</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=261</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>094.492.653-30</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>R$ 7,14</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Vidente Lana</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=214</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>038.066.452-64</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>R$ 13,44</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Online, 
-                                    Última Checagem á 6 segundos</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>257</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Wilka</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=257</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>400.637.188-9</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Wladimir</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=255</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>156.442.147-37</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>237</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Yara</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=237</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>103.002.409-02</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Zafira</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=235</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>373.107.748-50</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>R$ 0,00</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -572,13 +572,13 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>R$ 230,40</t>
+          <t>R$ 241,92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 9 segundos</t>
+                                    Última Checagem á 7 segundos</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -914,8 +914,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 8 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1054,13 +1053,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>R$ 141,60</t>
+          <t>R$ 149,28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 8 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1103,13 +1101,13 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>R$ 838,24</t>
+          <t>R$ 843,44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 8 segundos</t>
+                                    Última Checagem á 1 segundos</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1302,7 +1300,7 @@
       <c r="F18" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 1 segundos</t>
+                                    Última Checagem á 8 segundos</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1350,8 +1348,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 2 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1544,7 +1541,7 @@
       <c r="F23" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 7 segundos</t>
+                                    Última Checagem á 14 segundos</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1784,7 +1781,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Ocupado</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1976,8 +1973,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2026,7 +2022,7 @@
       <c r="F33" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 1 segundos</t>
+                                    Última Checagem á 9 segundos</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2123,7 +2119,7 @@
       <c r="F35" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 1 segundos</t>
+                                    Última Checagem á 11 segundos</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2267,7 +2263,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ocupado</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2412,7 +2408,7 @@
       <c r="F41" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 4 segundos</t>
+                                    Última Checagem á 2 segundos</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2743,7 +2739,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>R$ 426,60</t>
+          <t>R$ 447,60</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2888,8 +2884,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 2 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3076,13 +3071,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>R$ 303,68</t>
+          <t>R$ 307,32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3365,7 +3359,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>R$ 130,52</t>
+          <t>R$ 156,00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3413,12 +3407,13 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>R$ 482,65</t>
+          <t>R$ 498,87</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 1 segundos</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3562,7 +3557,8 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 10 segundos</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3895,7 +3891,7 @@
       <c r="F72" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 4 segundos</t>
+                                    Última Checagem á 7 segundos</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3938,13 +3934,13 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>R$ 374,40</t>
+          <t>R$ 380,64</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 10 segundos</t>
+                                    Última Checagem á 1 segundos</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">

--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,33 +552,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adara</t>
+          <t>Abele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=134</t>
+          <t>Pg.Edicao.php?Codigo=250</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>534.222.838-70</t>
+          <t>109.284.207-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>R$ 241,92</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 7 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -601,27 +600,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agatha Sensitiva</t>
+          <t>Adaline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=15</t>
+          <t>Pg.Edicao.php?Codigo=223</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>140.266.778-77</t>
+          <t>356.434.148-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>R$ 190,32</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -649,27 +648,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aidê Cigana</t>
+          <t>Adara</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=172</t>
+          <t>Pg.Edicao.php?Codigo=247</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>332.110.268-43</t>
+          <t>534.222.838-70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>R$ 26,40</t>
+          <t>R$ 63,00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -697,32 +696,33 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aisha Mística</t>
+          <t>Adna Cigana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=184</t>
+          <t>Pg.Edicao.php?Codigo=99</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>333.985.298-79</t>
+          <t>022.110.677-43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>R$ 106,48</t>
+          <t>R$ 91,20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 1 segundos</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -745,27 +745,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Akira</t>
+          <t>Aguida Cigana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=121</t>
+          <t>Pg.Edicao.php?Codigo=273</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>087.903.607-96</t>
+          <t>239.609.508-02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 55,86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -793,27 +793,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alba Cigana</t>
+          <t>Alba</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=178</t>
+          <t>Pg.Edicao.php?Codigo=231</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>239.609.508-02</t>
+          <t>080.373.609-62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>R$ 30,24</t>
+          <t>R$ 23,10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -841,27 +841,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Allano D´Ogum</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=100</t>
+          <t>Pg.Edicao.php?Codigo=54</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>042.734.029-20</t>
+          <t>478.756.405-63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>R$ 148,32</t>
+          <t>R$ 124,80</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -889,27 +889,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alister</t>
+          <t>Alma</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=143</t>
+          <t>Pg.Edicao.php?Codigo=279</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>092.473.537-69</t>
+          <t>839.062.159-20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>R$ 15,12</t>
+          <t>R$ 23,94</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -937,32 +937,33 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Althea</t>
+          <t>Amabile Cigana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=159</t>
+          <t>Pg.Edicao.php?Codigo=194</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>277.436.568-61</t>
+          <t>382.762.418-59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 17,64</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 56 segundos</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -985,27 +986,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Amabile</t>
+          <t>Amaira Cartomante</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=156</t>
+          <t>Pg.Edicao.php?Codigo=264</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>486.717.578-11</t>
+          <t>117.255.287-89</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>R$ 65,02</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1033,27 +1034,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ananda de Oxum</t>
+          <t>Amala</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=179</t>
+          <t>Pg.Edicao.php?Codigo=284</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>080.373.609-62</t>
+          <t>904.393.251-53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>R$ 149,28</t>
+          <t>R$ 47,46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1081,33 +1082,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Anitta</t>
+          <t>Amaya</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=26</t>
+          <t>Pg.Edicao.php?Codigo=266</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>336.455.648-29</t>
+          <t>844.106.049-53</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>R$ 843,44</t>
+          <t>R$ 155,83</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 1 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1130,22 +1130,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Amy Dantalion</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=175</t>
+          <t>Pg.Edicao.php?Codigo=190</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>373.914.868-33</t>
+          <t>861.369.090-49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1178,27 +1178,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aretusa Cigana</t>
+          <t>Angelita</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=157</t>
+          <t>Pg.Edicao.php?Codigo=182</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>063.416.498-86</t>
+          <t>093.859.127-47</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>R$ 74,09</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1226,27 +1226,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ariel Cigana</t>
+          <t>Anna Médium</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=176</t>
+          <t>Pg.Edicao.php?Codigo=43</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>382.762.418-59</t>
+          <t>226.786.878-48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>R$ 6,24</t>
+          <t>R$ 140,92</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1274,33 +1274,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Artemis</t>
+          <t>Ariella do Oriente</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=164</t>
+          <t>Pg.Edicao.php?Codigo=165</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>105.329.709-26</t>
+          <t>008.761.297-69</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>R$ 11,87</t>
+          <t>R$ 201,16</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 8 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1323,27 +1322,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ava Faro</t>
+          <t>Athena</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=183</t>
+          <t>Pg.Edicao.php?Codigo=114</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>839.062.159-20</t>
+          <t>019.035.750-95</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>R$ 64,48</t>
+          <t>R$ 12,48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1371,27 +1370,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aylla</t>
+          <t>Ayla</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=18</t>
+          <t>Pg.Edicao.php?Codigo=208</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>520.992.078-01</t>
+          <t>095.568.707-17</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>R$ 33,80</t>
+          <t>R$ 3,36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1419,27 +1418,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bruxa Agnes</t>
+          <t>Aymê D Osun</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=144</t>
+          <t>Pg.Edicao.php?Codigo=228</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>004.295.250-60</t>
+          <t>226.786.878-48</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>R$ 151,20</t>
+          <t>R$ 70,88</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1467,27 +1466,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bruxa Athena</t>
+          <t>Ayrah</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=145</t>
+          <t>Pg.Edicao.php?Codigo=283</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>357.234.208-28</t>
+          <t>317.770.208-08</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>R$ 208,80</t>
+          <t>R$ 1,68</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1515,33 +1514,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bruxa Celeste</t>
+          <t>Beatrice de Yemanjá</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=98</t>
+          <t>Pg.Edicao.php?Codigo=33</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>444.277.598-23</t>
+          <t>006.877.098-73</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>R$ 30,80</t>
+          <t>R$ 102,44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 14 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1564,27 +1562,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bruxa Hay Lin</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=94</t>
+          <t>Pg.Edicao.php?Codigo=218</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>030.147.910-08</t>
+          <t>080.146.496-05</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 21,84</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1612,27 +1610,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bruxa Hera</t>
+          <t>Bridget</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=187</t>
+          <t>Pg.Edicao.php?Codigo=22</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>041.059.625-66</t>
+          <t>268.869.558-45</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 9,12</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1660,32 +1658,33 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bruxa Mulambo</t>
+          <t>Brisa</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=186</t>
+          <t>Pg.Edicao.php?Codigo=285</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>421.146.258-00</t>
+          <t>146.681.777-17</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 57,54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 1 segundos</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1708,27 +1707,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Carmencita</t>
+          <t>Bruxa Zoraide</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=56</t>
+          <t>Pg.Edicao.php?Codigo=191</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>833.172.877-72</t>
+          <t>004.295.250-60</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>R$ 176,64</t>
+          <t>R$ 49,14</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1756,32 +1755,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Castiel</t>
+          <t>Carmem</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=29</t>
+          <t>Pg.Edicao.php?Codigo=97</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>341.635.858-93</t>
+          <t>000.000.000-00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>R$ 188,64</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ocupado</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1804,27 +1803,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>César</t>
+          <t>Cigana Agatha</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=25</t>
+          <t>Pg.Edicao.php?Codigo=158</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>135.629.258-59</t>
+          <t>119.442.576-72</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>R$ 122,40</t>
+          <t>R$ 36,96</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1852,27 +1851,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cigana Alzira</t>
+          <t>Cigana Alma</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=198</t>
+          <t>Pg.Edicao.php?Codigo=221</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>193.909.028-86</t>
+          <t>018.457.950-32</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>R$ 4,80</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1900,32 +1899,33 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cigana Ana</t>
+          <t>Cigana Amanda</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=138</t>
+          <t>Pg.Edicao.php?Codigo=10</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>704.732.282-54</t>
+          <t>189.015.628-04</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>R$ 191,80</t>
+          <t>R$ 114,24</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 5 segundos</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1948,32 +1948,33 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cigana Carmem</t>
+          <t>Cigana Aylla</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=78</t>
+          <t>Pg.Edicao.php?Codigo=281</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>904.393.251-53</t>
+          <t>372.230.918-27</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>R$ 43,20</t>
+          <t>R$ 10,50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 4 segundos</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1996,33 +1997,32 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cigana Clara</t>
+          <t>Cigana Bárbara</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=194</t>
+          <t>Pg.Edicao.php?Codigo=187</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>427.253.498-00</t>
+          <t>338.641.458-30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>R$ 12,92</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 9 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2045,27 +2045,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cigana Clarissa</t>
+          <t>Cigana Briza</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=58</t>
+          <t>Pg.Edicao.php?Codigo=110</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>224.996.348-71</t>
+          <t>103.688.977-70</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>R$ 185,72</t>
+          <t>R$ 91,20</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2093,33 +2093,32 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cigana Cristal</t>
+          <t>Cigana Carmellita</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=31</t>
+          <t>Pg.Edicao.php?Codigo=254</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>514.672.528-40</t>
+          <t>073.183.556-51</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>R$ 45,60</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 11 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2142,32 +2141,33 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cigana Delins</t>
+          <t>Cigana Cassandra</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=128</t>
+          <t>Pg.Edicao.php?Codigo=195</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>367.219.298-80</t>
+          <t>078.404.617-43</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>R$ 85,92</t>
+          <t>R$ 9,24</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 6 segundos</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2190,27 +2190,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cigana D’Las Rosas</t>
+          <t>Cigana Celene</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=189</t>
+          <t>Pg.Edicao.php?Codigo=287</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>751.251.291-00</t>
+          <t>044.156.997-82</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 45,78</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2238,27 +2238,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cigana Estrela da Noite</t>
+          <t>Cigana Consuela</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=191</t>
+          <t>Pg.Edicao.php?Codigo=58</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>291.479.608-09</t>
+          <t>480.141.538-55</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>R$ 47,52</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2286,27 +2286,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cigana Helena</t>
+          <t>Cigana Crystal</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=23</t>
+          <t>Pg.Edicao.php?Codigo=233</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>420.097.118-66</t>
+          <t>352.663.778-44</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 86,94</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2334,27 +2334,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cigana Naya</t>
+          <t>Cigana da Estrada</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=141</t>
+          <t>Pg.Edicao.php?Codigo=280</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>092.809.268-29</t>
+          <t>408.408.878-17</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>R$ 42,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2382,33 +2382,32 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cigana Rosa</t>
+          <t>Cigana Dandara da Estrada</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=182</t>
+          <t>Pg.Edicao.php?Codigo=207</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>230.952.148-55</t>
+          <t>297.430.488-55</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>R$ 30,96</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 2 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2431,27 +2430,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cigana Sarah</t>
+          <t>Cigana das Rosas Vermelhas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=193</t>
+          <t>Pg.Edicao.php?Codigo=278</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>157.707.058-50</t>
+          <t>013.734.020-67</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>R$ 62,12</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2479,27 +2478,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cigana Sarita</t>
+          <t>Cigana de Padilha</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=197</t>
+          <t>Pg.Edicao.php?Codigo=265</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>177.247.627-75</t>
+          <t>704.732.282-54</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>R$ 1,68</t>
+          <t>R$ 31,08</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2527,27 +2526,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cigana Sophia</t>
+          <t>Cigana do Ouro</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=167</t>
+          <t>Pg.Edicao.php?Codigo=253</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>282.460.278-32</t>
+          <t>163.816.018-09</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>R$ 132,48</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2575,27 +2574,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cigana Tamirez</t>
+          <t>Cigana Duan</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=196</t>
+          <t>Pg.Edicao.php?Codigo=180</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>128.576.748-99</t>
+          <t>422.792.698-05</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>R$ 16,24</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2623,27 +2622,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cigana Zaylla</t>
+          <t>Cigana Holanda</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=153</t>
+          <t>Pg.Edicao.php?Codigo=256</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>269.375.448-80</t>
+          <t>718.258.034-98</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>R$ 13,52</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2671,27 +2670,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cigano Ameo</t>
+          <t>Cigana Jamile</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=190</t>
+          <t>Pg.Edicao.php?Codigo=246</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>179.956.907-11</t>
+          <t>048.056.417-28</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>R$ 135,24</t>
+          <t>R$ 32,82</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2719,27 +2718,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cigano Belmiro</t>
+          <t>Cigana Jasmin</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=71</t>
+          <t>Pg.Edicao.php?Codigo=274</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>050.698.125-80</t>
+          <t>480.141.538-55</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>R$ 447,60</t>
+          <t>R$ 8,20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2767,27 +2766,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cigano Paulo</t>
+          <t>Cigana Jurema</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=149</t>
+          <t>Pg.Edicao.php?Codigo=72</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>060.041.077-35</t>
+          <t>483.724.985-04</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>R$ 394,24</t>
+          <t>R$ 9,88</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2815,39 +2814,43 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Consultas Avaliativas</t>
+          <t>Cigana Kayla</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=19</t>
+          <t>Pg.Edicao.php?Codigo=137</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ -3,50</t>
+          <t>333.468.258-76</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>R$ 15,84</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2859,32 +2862,33 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Elisa de Iansã</t>
+          <t>Cigana Livia</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=185</t>
+          <t>Pg.Edicao.php?Codigo=48</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>044.156.997-82</t>
+          <t>844.258.490-00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>R$ 99,36</t>
+          <t>R$ 302,82</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 10 segundos</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2907,27 +2911,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Emeraude</t>
+          <t>Cigana Lua</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=181</t>
+          <t>Pg.Edicao.php?Codigo=199</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>454.952.008-61</t>
+          <t>503.311.468-94</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>R$ 60,28</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2955,22 +2959,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Flor de Lis</t>
+          <t>Cigana Luz</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=180</t>
+          <t>Pg.Edicao.php?Codigo=210</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>429.202.818-44</t>
+          <t>495.723.698-49</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3003,27 +3007,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gitano Edu</t>
+          <t>Cigana Luziara</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=174</t>
+          <t>Pg.Edicao.php?Codigo=150</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>026.230.347-70</t>
+          <t>092.809.268-29</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 50,40</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3051,27 +3055,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Inaê</t>
+          <t>Cigana Madalena</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=28</t>
+          <t>Pg.Edicao.php?Codigo=239</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>140.003.00</t>
+          <t>070.343.957-05</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>R$ 307,32</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3099,22 +3103,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Joanna Sensitiva</t>
+          <t>Cigana Manuela</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=87</t>
+          <t>Pg.Edicao.php?Codigo=176</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>066.669.589-00</t>
+          <t>781.764.924-34</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3147,27 +3151,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kayra</t>
+          <t>Cigana Mariah</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=112</t>
+          <t>Pg.Edicao.php?Codigo=248</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>333.468.258-76</t>
+          <t>009.143.967-14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>R$ 21,32</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3195,27 +3199,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Laia</t>
+          <t>Cigana Natasha</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=177</t>
+          <t>Pg.Edicao.php?Codigo=181</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>233.812.378-61</t>
+          <t>131.946.738-58</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>R$ 2,08</t>
+          <t>R$ 48,72</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3243,32 +3247,32 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Luna Cigana</t>
+          <t>Cigana Pérola</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=188</t>
+          <t>Pg.Edicao.php?Codigo=229</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>103.372.017-81</t>
+          <t>097.881.807-52</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>R$ 7,68</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Ocupado</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3291,27 +3295,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Maria de Oyá</t>
+          <t>Cigana Rosa</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=168</t>
+          <t>Pg.Edicao.php?Codigo=69</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>671.468.217-49</t>
+          <t>859.082.159-53</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>R$ 1,56</t>
+          <t>R$ 67,68</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3339,27 +3343,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Merlia</t>
+          <t>Cigana Rosita</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=60</t>
+          <t>Pg.Edicao.php?Codigo=275</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>107.833.089-14</t>
+          <t>152.152.156-17</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>R$ 156,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3387,33 +3391,32 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mística Hanna</t>
+          <t>Cigana Safira</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=160</t>
+          <t>Pg.Edicao.php?Codigo=35</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>713.543.1</t>
+          <t>480.341.128-01</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>R$ 498,87</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 1 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3436,27 +3439,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mística Kally</t>
+          <t>Cigana Salomé</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=142</t>
+          <t>Pg.Edicao.php?Codigo=242</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>746.674.400-15</t>
+          <t>671.468.217-49</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>R$ 36,48</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3484,27 +3487,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mística Pandora</t>
+          <t>Cigana Samara</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=110</t>
+          <t>Pg.Edicao.php?Codigo=153</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>443.012.598-80</t>
+          <t>480.341.128-10</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>R$ 63,44</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3532,33 +3535,32 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Natasha Cigana</t>
+          <t>Cigana Sol</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=102</t>
+          <t>Pg.Edicao.php?Codigo=55</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>131.946.738-58</t>
+          <t>991.379.097-20</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>R$ 144,56</t>
+          <t>R$ 32,90</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 10 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3581,27 +3583,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Rosa Maria</t>
+          <t>Cigana Sulamita</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=109</t>
+          <t>Pg.Edicao.php?Codigo=277</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>104.767.004-69</t>
+          <t>058.874.847-12</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>R$ 252,20</t>
+          <t>R$ 5,01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3629,27 +3631,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Safira</t>
+          <t>Cigana Zattara</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=21</t>
+          <t>Pg.Edicao.php?Codigo=227</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>128.318.037-56</t>
+          <t>023.594.097-60</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>R$ 30,40</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3677,27 +3679,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Samylla</t>
+          <t>Cigano Andaluz</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=73</t>
+          <t>Pg.Edicao.php?Codigo=126</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>015.289.160-93</t>
+          <t>023.594.097-60</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>R$ 60,32</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3725,27 +3727,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sensitiva Esmeralda</t>
+          <t>Cigano Muller</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=139</t>
+          <t>Pg.Edicao.php?Codigo=209</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>079.832.913-02</t>
+          <t>188.503.338-22</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 19,96</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3773,27 +3775,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sensitiva Ísis</t>
+          <t>Cigano Ramiro</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=154</t>
+          <t>Pg.Edicao.php?Codigo=244</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>095.568.707-17</t>
+          <t>422.797.918-89</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>R$ 7,56</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3821,39 +3823,43 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>testeatt1 - NÃO REMOVER</t>
+          <t>Cigano Saulo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=32</t>
+          <t>Pg.Edicao.php?Codigo=252</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ -12,00</t>
+          <t>345.169.758-07</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3865,27 +3871,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Vênus</t>
+          <t>Cigano Tarim</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=155</t>
+          <t>Pg.Edicao.php?Codigo=196</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>038.066.452-64</t>
+          <t>141.583.437-71</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>R$ 49,14</t>
+          <t>R$ 2,73</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3914,33 +3920,32 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Vidente Cassandra</t>
+          <t>Cleópatra Cigana</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=192</t>
+          <t>Pg.Edicao.php?Codigo=288</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>378.944.738-20</t>
+          <t>095.542.319-89</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>R$ 380,64</t>
+          <t>R$ 17,64</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 1 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3963,22 +3968,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Vidente Thomàs</t>
+          <t>Cronos Tarólogo</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=14</t>
+          <t>Pg.Edicao.php?Codigo=240</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>377.875.738-56</t>
+          <t>138.057.766-75</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3988,7 +3993,8 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 10 segundos</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4011,32 +4017,33 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Xamã Tarólogo</t>
+          <t>Dalila</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=117</t>
+          <t>Pg.Edicao.php?Codigo=270</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>180.743.808-23</t>
+          <t>109.247.989-98</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>R$ 8,84</t>
+          <t>R$ 46,62</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 2 segundos</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4059,27 +4066,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Zuri Cigana (se demitiu)</t>
+          <t>Dama Carmen</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=195</t>
+          <t>Pg.Edicao.php?Codigo=179</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>388.305.758-44</t>
+          <t>130.080.156-54</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>R$ 23,52</t>
+          <t>R$ 2,52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4104,6 +4111,2309 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Dicearco</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=226</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>163.050.176-03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>R$ 6,72</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Esmeralda</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=29</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>400.637.918-89</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Estella</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=225</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>128.576.748-99</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Esther</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=262</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>028.579.121-45</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Feiticeiro Morgan</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=211</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>976.182.170-68</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Fréia</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=245</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>060.513.704-80</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Frigga Cigana</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=263</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>381.683.658-52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>R$ 17,64</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Gaya Cigana</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=234</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>072.879.826-33</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Hanna</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=269</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>104.827.449-79</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Higor D`Oxala</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=19</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>341.635.858-93</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>R$ 307,84</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Ísis</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=216</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>135.180.778-13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Jana</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=251</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>083.156.417-27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>R$ 37,80</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Kabila</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=25</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>031.637.788-01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Kyara</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=61</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>040.725.688-13</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>R$ 5,76</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Lilith</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=189</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>395.446.878-66</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>R$ 21,84</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Lua D´Oxum</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=217</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>291.479.608-09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Madalenah</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=249</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>403.291.178-90</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mago Gabriel</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=286</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>170.718.756-85</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Magus</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=202</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>341.618.268-50</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>R$ 36,75</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Médium Amora</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=20</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>294.298.332</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>R$ 49,28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mirela Dourada</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=267</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>054.335.118-12</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>R$ 6,72</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 1 segundos</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Mistica Brida</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=81</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>447.198.599-0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Mística Kali</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=272</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>129.447.526-69</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Místico Raj</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=146</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>077.814.597-25</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>R$ 41,76</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Nicolas</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=32</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>135.629.258-59</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>R$ 32,64</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 6 segundos</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Niina</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=260</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>137.195.037-71</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>R$ 5,46</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Pandora</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=230</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>118.735.717-04</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Pitágoras</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=213</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>138.057.576-11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Radina</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=34</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>703.439.570-5</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Rosa Padilha</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=282</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>329.206.948-39</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>R$ 18,39</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 9 segundos</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Sacerdotisa Nix</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=173</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>022.104.229-65</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Sara Cornalina</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=259</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>381.517.928-92</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Sara D’ Osum</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=145</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>027.416.297-06</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=212</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>368.895.498-05</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Sensitiva Quitéria</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=52</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>221.006.378-78</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>R$ 288,62</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Soha</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=276</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>230.952.148-55</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>R$ 12,60</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Sulamita</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=119</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>074.209.057-46</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>R$ 62,40</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Sumaya do Oriente</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=215</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>395.754.918-31</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Taróloga Évora</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=243</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>065.077.297-20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Taróloga Milly</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=258</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>427.253.498-00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>testeatt1</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=30</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Thata Hindi</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=268</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>382.109.708-60</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Théo</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=261</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>094.492.653-30</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>R$ 15,54</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Vidente Lana</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=214</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>038.066.452-64</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>R$ 13,44</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Wilka</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=257</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>400.637.188-9</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Wladimir</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=255</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>156.442.147-37</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Yara</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=237</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>103.002.409-02</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Zafira</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=235</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>373.107.748-50</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -716,7 +716,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R$ 883,48</t>
+          <t>R$ 945,36</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -776,7 +776,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R$ 188,64</t>
+          <t>R$ 192,48</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -922,7 +922,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R$ 172,64</t>
+          <t>R$ 196,56</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -952,7 +952,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R$ 458,40</t>
+          <t>R$ 495,00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R$ 279,04</t>
+          <t>R$ 286,72</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -2752,7 +2752,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 6,24</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>

--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,14 +602,13 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>R$ 449,92</t>
+          <t>R$ 1.029,12</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 4 segundos</t>
+          <t>Em Atendimento</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -631,7 +630,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -639,25 +638,25 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Agatha Sensitiva</t>
+          <t>Adelina</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=15</t>
+          <t>Pg.Edicao.php?Codigo=219</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>140.266.778-77</t>
+          <t>224.996.348-71</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>R$ 248,04</t>
+          <t>R$ 43,16</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -685,7 +684,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -693,25 +692,25 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aidê Cigana</t>
+          <t>Agatha Sensitiva</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=172</t>
+          <t>Pg.Edicao.php?Codigo=15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>332.110.268-43</t>
+          <t>140.266.778-77</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R$ 45,60</t>
+          <t>R$ 273,00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -739,7 +738,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -747,25 +746,25 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Aisha Mística</t>
+          <t>Aidê Cigana</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=184</t>
+          <t>Pg.Edicao.php?Codigo=172</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>333.985.298-79</t>
+          <t>332.110.268-43</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R$ 119,92</t>
+          <t>R$ 67,20</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -793,7 +792,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -801,25 +800,25 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Akira</t>
+          <t>Aisha Mística</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=121</t>
+          <t>Pg.Edicao.php?Codigo=184</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>087.903.607-96</t>
+          <t>333.985.298-79</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 115,20</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
@@ -873,14 +872,13 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R$ 36,96</t>
+          <t>R$ 33,60</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 4 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -928,7 +926,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R$ 178,08</t>
+          <t>R$ 69,60</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -982,14 +980,14 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R$ 15,12</t>
+          <t>R$ 30,24</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 5 segundos</t>
+                                    Última Checagem á 9 segundos</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1011,7 +1009,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1019,25 +1017,25 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Althea</t>
+          <t>Amabile</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=159</t>
+          <t>Pg.Edicao.php?Codigo=156</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>277.436.568-61</t>
+          <t>486.717.578-11</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 120,98</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1065,7 +1063,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1073,25 +1071,25 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Amabile</t>
+          <t>Amábile Mística</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=156</t>
+          <t>Pg.Edicao.php?Codigo=200</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>486.717.578-11</t>
+          <t>388.583.918-02</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R$ 75,60</t>
+          <t>R$ 27,56</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1119,7 +1117,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1127,32 +1125,32 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Amábile Mística</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=200</t>
+          <t>Pg.Edicao.php?Codigo=205</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>388.583.918-02</t>
+          <t>019.642.190-00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 306,00</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 6 segundos</t>
+                                    Última Checagem á 4 segundos</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1174,7 +1172,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1182,32 +1180,31 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Ananda de Oxum</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=205</t>
+          <t>Pg.Edicao.php?Codigo=179</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>019.642.190-00</t>
+          <t>080.373.609-62</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R$ 53,00</t>
+          <t>R$ 199,68</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 8 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1229,7 +1226,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1237,32 +1234,31 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ananda de Oxum</t>
+          <t>Anay</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=179</t>
+          <t>Pg.Edicao.php?Codigo=212</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>080.373.609-62</t>
+          <t>015.289.160-93</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R$ 171,84</t>
+          <t>R$ 40,56</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 10 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1284,7 +1280,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1292,32 +1288,32 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Andrina Cigana</t>
+          <t>André</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=204</t>
+          <t>Pg.Edicao.php?Codigo=221</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>022.110.677-43</t>
+          <t>127.799.609-14</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R$ 11,20</t>
+          <t>R$ 23,52</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 7 segundos</t>
+                                    Última Checagem á 1 segundos</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1339,7 +1335,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1347,32 +1343,31 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Anitta</t>
+          <t>Andrina Cigana</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=26</t>
+          <t>Pg.Edicao.php?Codigo=204</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>336.455.648-29</t>
+          <t>022.110.677-43</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R$ 1.005,16</t>
+          <t>R$ 349,44</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 7 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1394,7 +1389,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1402,31 +1397,32 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aretusa Cigana</t>
+          <t>Anitta</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=157</t>
+          <t>Pg.Edicao.php?Codigo=26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>063.416.498-86</t>
+          <t>336.455.648-29</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R$ 100,55</t>
+          <t>R$ 795,60</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 9 segundos</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -1448,7 +1444,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1456,31 +1452,32 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ariel Cigana</t>
+          <t>Apolo</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=176</t>
+          <t>Pg.Edicao.php?Codigo=211</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>382.762.418-59</t>
+          <t>844.106.049-53</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R$ 6,24</t>
+          <t>R$ 124,32</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 2 segundos</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -1502,7 +1499,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1510,25 +1507,25 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Artemis</t>
+          <t>Aretusa Cigana</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=164</t>
+          <t>Pg.Edicao.php?Codigo=157</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>105.329.709-26</t>
+          <t>063.416.498-86</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>R$ 19,67</t>
+          <t>R$ 71,08</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1556,7 +1553,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1564,31 +1561,32 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Asa Mística</t>
+          <t>Artemis</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=201</t>
+          <t>Pg.Edicao.php?Codigo=164</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>578.217.390-49</t>
+          <t>105.329.709-26</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R$ 54,88</t>
+          <t>R$ 31,20</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 11 segundos</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -1610,7 +1608,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1618,25 +1616,25 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ava Faro</t>
+          <t>Asa Mística</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=183</t>
+          <t>Pg.Edicao.php?Codigo=201</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>839.062.159-20</t>
+          <t>578.217.390-49</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>R$ 64,48</t>
+          <t>R$ 470,96</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1664,7 +1662,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1672,31 +1670,32 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aylla</t>
+          <t>Aurélia</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=18</t>
+          <t>Pg.Edicao.php?Codigo=207</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>520.992.078-01</t>
+          <t>154.111.998-32</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>R$ 41,60</t>
+          <t>R$ 261,56</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 2 segundos</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -1718,7 +1717,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1726,31 +1725,32 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bruxa Agnes</t>
+          <t>Ava Faro</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=144</t>
+          <t>Pg.Edicao.php?Codigo=183</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>004.295.250-60</t>
+          <t>839.062.159-20</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>R$ 190,08</t>
+          <t>R$ 44,72</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 2 segundos</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -1772,7 +1772,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1780,25 +1780,25 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Bruxa Athena</t>
+          <t>Aylla</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=145</t>
+          <t>Pg.Edicao.php?Codigo=18</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>357.234.208-28</t>
+          <t>520.992.078-01</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R$ 260,64</t>
+          <t>R$ 97,00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1826,7 +1826,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1834,32 +1834,31 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bruxa Celeste</t>
+          <t>Bruxa Agnes</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=98</t>
+          <t>Pg.Edicao.php?Codigo=144</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>444.277.598-23</t>
+          <t>004.295.250-60</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R$ 30,80</t>
+          <t>R$ 139,68</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 4 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -1881,7 +1880,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1889,25 +1888,25 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bruxa Hay Lin</t>
+          <t>Bruxa Allana</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=94</t>
+          <t>Pg.Edicao.php?Codigo=209</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>030.147.910-08</t>
+          <t>343.678.880-53</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 0,88</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1935,7 +1934,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1943,25 +1942,25 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bruxa Hera</t>
+          <t>Bruxa Athena</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=187</t>
+          <t>Pg.Edicao.php?Codigo=145</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>041.059.625-66</t>
+          <t>357.234.208-28</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 476,64</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1989,7 +1988,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1997,25 +1996,25 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bruxa Mulambo</t>
+          <t>Bruxa Celeste</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=186</t>
+          <t>Pg.Edicao.php?Codigo=98</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>421.146.258-00</t>
+          <t>444.277.598-23</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 32,64</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2069,14 +2068,14 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>R$ 23,40</t>
+          <t>R$ 82,68</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 7 segundos</t>
+                                    Última Checagem á 0 segundos</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2098,7 +2097,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -2106,25 +2105,25 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Carmencita</t>
+          <t>Bruxo do Lodo</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=56</t>
+          <t>Pg.Edicao.php?Codigo=214</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>833.172.877-72</t>
+          <t>577.198.268-12</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>R$ 270,24</t>
+          <t>R$ 63,96</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2152,7 +2151,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -2160,31 +2159,31 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Castiel</t>
+          <t>Carmencita</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=29</t>
+          <t>Pg.Edicao.php?Codigo=56</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>341.635.858-93</t>
+          <t>833.172.877-72</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>R$ 192,48</t>
+          <t>R$ 338,88</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Em Atendimento</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -2206,7 +2205,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -2214,31 +2213,31 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>César</t>
+          <t>Castiel</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=25</t>
+          <t>Pg.Edicao.php?Codigo=29</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>135.629.258-59</t>
+          <t>341.635.858-93</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>R$ 134,40</t>
+          <t>R$ 174,24</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Ocupado</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -2260,7 +2259,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -2268,32 +2267,31 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cigana Alzira</t>
+          <t>César</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=198</t>
+          <t>Pg.Edicao.php?Codigo=25</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>193.909.028-86</t>
+          <t>135.629.258-59</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>R$ 4,80</t>
+          <t>R$ 44,16</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 0 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -2315,7 +2313,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -2323,25 +2321,25 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cigana Ana</t>
+          <t>Cigana Alzira</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=138</t>
+          <t>Pg.Edicao.php?Codigo=198</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>704.732.282-54</t>
+          <t>193.909.028-86</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R$ 198,80</t>
+          <t>R$ 57,12</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
@@ -2369,7 +2367,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -2377,32 +2375,31 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cigana Carmem</t>
+          <t>Cigana Ana</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=78</t>
+          <t>Pg.Edicao.php?Codigo=138</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>904.393.251-53</t>
+          <t>704.732.282-54</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R$ 47,52</t>
+          <t>R$ 70,70</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 8 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -2424,7 +2421,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -2432,25 +2429,25 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cigana Clara</t>
+          <t>Cigana Angel</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=194</t>
+          <t>Pg.Edicao.php?Codigo=220</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>427.253.498-00</t>
+          <t>472.320.688-40</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>R$ 22,52</t>
+          <t>R$ 35,04</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
@@ -2478,7 +2475,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -2486,32 +2483,31 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cigana Clarissa</t>
+          <t>Cigana Carmem</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=58</t>
+          <t>Pg.Edicao.php?Codigo=78</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>224.996.348-71</t>
+          <t>904.393.251-53</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>R$ 254,36</t>
+          <t>R$ 43,20</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 6 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -2533,7 +2529,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -2541,25 +2537,25 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cigana Cristal</t>
+          <t>Cigana Clara</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=31</t>
+          <t>Pg.Edicao.php?Codigo=194</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>514.672.528-40</t>
+          <t>427.253.498-00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R$ 65,28</t>
+          <t>R$ 36,00</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -2587,7 +2583,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -2595,25 +2591,25 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cigana Delins</t>
+          <t>Cigana Clarissa</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=128</t>
+          <t>Pg.Edicao.php?Codigo=58</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>367.219.298-80</t>
+          <t>224.996.348-71</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R$ 85,92</t>
+          <t>R$ 94,08</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2641,7 +2637,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -2649,31 +2645,32 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cigana D’Las Rosas</t>
+          <t>Cigana Cristal</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=189</t>
+          <t>Pg.Edicao.php?Codigo=31</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>224.996.348-71</t>
+          <t>514.672.528-40</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 89,76</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 9 segundos</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -2695,7 +2692,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -2703,25 +2700,25 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cigana Estrela da Noite</t>
+          <t>Cigana Delins</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=191</t>
+          <t>Pg.Edicao.php?Codigo=128</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>291.479.608-09</t>
+          <t>367.219.298-80</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>R$ 64,32</t>
+          <t>R$ 39,84</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2749,7 +2746,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -2757,25 +2754,25 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cigana Helena</t>
+          <t>Cigana Estrela da Noite</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=23</t>
+          <t>Pg.Edicao.php?Codigo=191</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>420.097.118-66</t>
+          <t>291.479.608-09</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 41,28</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -2803,7 +2800,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -2811,25 +2808,25 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cigana Naya</t>
+          <t>Cigana Helena</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=141</t>
+          <t>Pg.Edicao.php?Codigo=23</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>092.809.268-29</t>
+          <t>420.097.118-66</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>R$ 42,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -2883,13 +2880,14 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>R$ 35,76</t>
+          <t>R$ 28,80</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 3 segundos</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -2937,7 +2935,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>R$ 70,28</t>
+          <t>R$ 24,00</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
@@ -2991,7 +2989,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>R$ 1,68</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3045,7 +3043,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>R$ 156,48</t>
+          <t>R$ 7,20</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -3099,7 +3097,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 4,48</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3153,7 +3151,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>R$ 20,16</t>
+          <t>R$ 2,24</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3207,14 +3205,13 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>R$ 13,52</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 8 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -3262,7 +3259,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>R$ 141,96</t>
+          <t>R$ 38,88</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3316,7 +3313,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>R$ 627,60</t>
+          <t>R$ 225,60</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3370,7 +3367,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>R$ 416,64</t>
+          <t>R$ 117,76</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3398,7 +3395,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -3406,27 +3403,32 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Consultas Avaliativas</t>
+          <t>Cigano Tássio</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=19</t>
+          <t>Pg.Edicao.php?Codigo=218</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>092.809.268-29</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>R$ -3,50</t>
+          <t>R$ 63,00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 3 segundos</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3448,7 +3450,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -3456,32 +3458,31 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Elisa de Iansã</t>
+          <t>Cigano Yaron</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=185</t>
+          <t>Pg.Edicao.php?Codigo=216</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>044.156.997-82</t>
+          <t>421.651.898-29</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>R$ 170,88</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3503,7 +3504,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -3511,32 +3512,27 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Emeraude</t>
+          <t>Consultas Avaliativas</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=181</t>
+          <t>Pg.Edicao.php?Codigo=19</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>454.952.008-61</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>R$ 63,64</t>
+          <t>R$ -3,50</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 6 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3558,7 +3554,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -3566,25 +3562,25 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Flor de Lis</t>
+          <t>Dalila</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=180</t>
+          <t>Pg.Edicao.php?Codigo=206</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>429.202.818-44</t>
+          <t>109.247.989-98</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 30,24</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
@@ -3612,7 +3608,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -3620,31 +3616,32 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Gitano Edu</t>
+          <t>Elisa de Iansã</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=174</t>
+          <t>Pg.Edicao.php?Codigo=185</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>026.230.347-70</t>
+          <t>044.156.997-82</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 105,60</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 0 segundos</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3666,7 +3663,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -3674,25 +3671,25 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Inaê</t>
+          <t>Gael de Oxossi</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=28</t>
+          <t>Pg.Edicao.php?Codigo=213</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>140.003.00</t>
+          <t>125.447.276-24</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>R$ 309,92</t>
+          <t>R$ 13,00</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
@@ -3720,7 +3717,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -3728,25 +3725,25 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Kayra</t>
+          <t>Inaê</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=112</t>
+          <t>Pg.Edicao.php?Codigo=28</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>333.468.258-76</t>
+          <t>140.003.00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>R$ 31,72</t>
+          <t>R$ 152,36</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
@@ -3775,7 +3772,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -3783,25 +3780,25 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Laia</t>
+          <t>Luna Cigana</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=177</t>
+          <t>Pg.Edicao.php?Codigo=188</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>233.812.378-61</t>
+          <t>103.372.017-81</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>R$ 2,08</t>
+          <t>R$ 4,32</t>
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
@@ -3829,7 +3826,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -3837,25 +3834,25 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Luna Cigana</t>
+          <t>Maribel Cigana</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=188</t>
+          <t>Pg.Edicao.php?Codigo=208</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>103.372.017-81</t>
+          <t>469.599.548-43</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>R$ 7,68</t>
+          <t>R$ 40,32</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -3883,7 +3880,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -3891,31 +3888,32 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Maria de Oyá</t>
+          <t>Matias</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=168</t>
+          <t>Pg.Edicao.php?Codigo=215</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>671.468.217-49</t>
+          <t>360.387.948-16</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>R$ 1,56</t>
+          <t>R$ 65,00</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 10 segundos</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -3963,13 +3961,14 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 56,68</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 6 segundos</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4017,7 +4016,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>R$ 208,52</t>
+          <t>R$ 144,56</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
@@ -4045,7 +4044,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -4053,25 +4052,25 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Mística Hanna</t>
+          <t>Mística Brigitte</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=160</t>
+          <t>Pg.Edicao.php?Codigo=217</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>713.543.1</t>
+          <t>454.952.008-61</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>R$ 550,25</t>
+          <t>R$ 79,68</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
@@ -4099,7 +4098,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -4107,31 +4106,32 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Mística Kally</t>
+          <t>Mística Hanna</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=142</t>
+          <t>Pg.Edicao.php?Codigo=160</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>746.674.400-15</t>
+          <t>713.543.1</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>R$ 57,12</t>
+          <t>R$ 262,96</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 0 segundos</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4153,7 +4153,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -4161,25 +4161,25 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Mística Pandora</t>
+          <t>Mística Kally</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=110</t>
+          <t>Pg.Edicao.php?Codigo=142</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>443.012.598-80</t>
+          <t>746.674.400-15</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>R$ 63,44</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -4207,7 +4207,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -4215,25 +4215,25 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Natasha Cigana</t>
+          <t>Mística Pandora</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=102</t>
+          <t>Pg.Edicao.php?Codigo=110</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>131.946.738-58</t>
+          <t>443.012.598-80</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>R$ 152,88</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
@@ -4261,7 +4261,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>112</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -4269,25 +4269,25 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Rosa Maria</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=109</t>
+          <t>Pg.Edicao.php?Codigo=112</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>104.767.004-69</t>
+          <t>333.468.258-76</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>R$ 345,28</t>
+          <t>R$ 272,48</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
@@ -4315,7 +4315,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -4323,25 +4323,25 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Safira</t>
+          <t>Natasha Cigana</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=21</t>
+          <t>Pg.Edicao.php?Codigo=102</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>128.318.037-56</t>
+          <t>131.946.738-58</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>R$ 43,36</t>
+          <t>R$ 144,56</t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
@@ -4369,7 +4369,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -4377,25 +4377,25 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Samylla</t>
+          <t>Rosa Maria</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=73</t>
+          <t>Pg.Edicao.php?Codigo=109</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>015.289.160-93</t>
+          <t>104.767.004-69</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>R$ 80,60</t>
+          <t>R$ 474,76</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
@@ -4423,7 +4423,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -4431,25 +4431,25 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sensitiva Esmeralda</t>
+          <t>Safira</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=139</t>
+          <t>Pg.Edicao.php?Codigo=21</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>079.832.913-02</t>
+          <t>128.318.037-56</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 92,64</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -4485,31 +4485,32 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sensitiva Ísis</t>
+          <t>Sr. Bara</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=154</t>
+          <t>Pg.Edicao.php?Codigo=210</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>095.568.707-17</t>
+          <t>334.089.248-21</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>R$ 7,56</t>
+          <t>R$ 61,44</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 9 segundos</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4531,7 +4532,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -4539,27 +4540,32 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>testeatt1 - NÃO REMOVER</t>
+          <t>Taróloga Imperatriz</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=32</t>
+          <t>Pg.Edicao.php?Codigo=222</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>319.428.618-85</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>R$ -12,00</t>
+          <t>R$ 32,48</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 9 segundos</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -4581,7 +4587,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -4589,25 +4595,21 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Vênus</t>
+          <t>testeatt1 - NÃO REMOVER</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=155</t>
+          <t>Pg.Edicao.php?Codigo=32</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>038.066.452-64</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>R$ 49,14</t>
+          <t>R$ -12,00</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -4635,7 +4637,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -4643,32 +4645,31 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Vidente Cassandra</t>
+          <t>Vênus</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=192</t>
+          <t>Pg.Edicao.php?Codigo=155</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>378.944.738-20</t>
+          <t>038.066.452-64</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>R$ 399,36</t>
+          <t>R$ 43,85</t>
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 7 segundos</t>
+          <t>Ocupado</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -4690,7 +4691,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -4698,31 +4699,32 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Vidente Thomàs</t>
+          <t>Vidente Cassandra</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=14</t>
+          <t>Pg.Edicao.php?Codigo=192</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>377.875.738-56</t>
+          <t>378.944.738-20</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 237,12</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 3 segundos</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -4770,14 +4772,13 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>R$ 8,84</t>
+          <t>R$ 38,48</t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 1 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -4796,60 +4797,6 @@
       </c>
       <c r="T80" t="inlineStr"/>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Zuri Cigana (se demitiu)</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Pg.Edicao.php?Codigo=195</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>388.305.758-44</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>R$ 23,52</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>Offline</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>Desconectar
-Deletar
-Créditos
-Log de Acessos
-Log de Status</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ordem do TOP</t>
+          <t>Ordem de Destaque</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -576,7 +576,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -584,31 +584,31 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Adara</t>
+          <t>7 Saias</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=134</t>
+          <t>Pg.Edicao.php?Codigo=447</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>534.222.838-70</t>
+          <t>226.786.878-48</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>R$ 1.029,12</t>
+          <t>R$ 306,00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Em Atendimento</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -630,7 +630,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -638,25 +638,25 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Adelina</t>
+          <t>Abbell D´Ogunjá</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=219</t>
+          <t>Pg.Edicao.php?Codigo=160</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>224.996.348-71</t>
+          <t>226.786.878-48</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>R$ 43,16</t>
+          <t>R$ 367,60</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -684,7 +684,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -692,25 +692,25 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Agatha Sensitiva</t>
+          <t>Abby</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=15</t>
+          <t>Pg.Edicao.php?Codigo=231</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>140.266.778-77</t>
+          <t>520.992.078-01</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R$ 273,00</t>
+          <t>R$ 127,60</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -738,7 +738,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -746,31 +746,31 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Aidê Cigana</t>
+          <t>Ada</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=172</t>
+          <t>Pg.Edicao.php?Codigo=397</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>332.110.268-43</t>
+          <t>839.062.159-20</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R$ 67,20</t>
+          <t>R$ 1.207,36</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Em Atendimento</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -792,7 +792,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -800,25 +800,25 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Aisha Mística</t>
+          <t>Adália Médium</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=184</t>
+          <t>Pg.Edicao.php?Codigo=446</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>333.985.298-79</t>
+          <t>442.126.768-69</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R$ 115,20</t>
+          <t>R$ 416,00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -854,25 +854,25 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alba Cigana</t>
+          <t>Adallyn</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=178</t>
+          <t>Pg.Edicao.php?Codigo=284</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>239.609.508-02</t>
+          <t>322.072.188-56</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R$ 33,60</t>
+          <t>R$ 65,60</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -900,7 +900,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -908,25 +908,25 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Agatha Cigana</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=100</t>
+          <t>Pg.Edicao.php?Codigo=307</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>042.734.029-20</t>
+          <t>382.762.418-59</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R$ 69,60</t>
+          <t>R$ 1.532,40</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -954,7 +954,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -962,32 +962,31 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Alister</t>
+          <t>Alaíde</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=143</t>
+          <t>Pg.Edicao.php?Codigo=338</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>092.473.537-69</t>
+          <t>175.824.068-77</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R$ 30,24</t>
+          <t>R$ 156,00</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 9 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1009,7 +1008,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1017,25 +1016,25 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Amabile</t>
+          <t>Alaine Cigana</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=156</t>
+          <t>Pg.Edicao.php?Codigo=440</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>486.717.578-11</t>
+          <t>006.619.678-75</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R$ 120,98</t>
+          <t>R$ 402,00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1063,7 +1062,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1071,25 +1070,25 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Amábile Mística</t>
+          <t>Alba Cigana</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=200</t>
+          <t>Pg.Edicao.php?Codigo=209</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>388.583.918-02</t>
+          <t>022.110.677-43</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R$ 27,56</t>
+          <t>R$ 1.130,40</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1117,7 +1116,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1125,32 +1124,31 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Aliah</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=205</t>
+          <t>Pg.Edicao.php?Codigo=417</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>019.642.190-00</t>
+          <t>128.576.748-99</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R$ 306,00</t>
+          <t>R$ 106,80</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 4 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1172,7 +1170,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1180,25 +1178,25 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ananda de Oxum</t>
+          <t>Alisson</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=179</t>
+          <t>Pg.Edicao.php?Codigo=256</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>080.373.609-62</t>
+          <t>135.629.258-59</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R$ 199,68</t>
+          <t>R$ 77,60</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1226,7 +1224,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1234,25 +1232,25 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Anay</t>
+          <t>Alma</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=212</t>
+          <t>Pg.Edicao.php?Codigo=274</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>015.289.160-93</t>
+          <t>063.416.498-86</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R$ 40,56</t>
+          <t>R$ 452,40</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1280,7 +1278,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1288,32 +1286,31 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>André</t>
+          <t>Amabile</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=221</t>
+          <t>Pg.Edicao.php?Codigo=279</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>127.799.609-14</t>
+          <t>486.717.578-11</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R$ 23,52</t>
+          <t>R$ 552,40</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 1 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1335,7 +1332,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1343,25 +1340,25 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Andrina Cigana</t>
+          <t>Amaya</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=204</t>
+          <t>Pg.Edicao.php?Codigo=389</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>022.110.677-43</t>
+          <t>844.106.049-53</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R$ 349,44</t>
+          <t>R$ 531,60</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1389,7 +1386,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1397,32 +1394,31 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Anitta</t>
+          <t>Amenadiel</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=26</t>
+          <t>Pg.Edicao.php?Codigo=441</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>336.455.648-29</t>
+          <t>127.799.609-14</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R$ 795,60</t>
+          <t>R$ 710,00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 9 segundos</t>
+          <t>Ocupado</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -1444,7 +1440,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1452,32 +1448,31 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Apolo</t>
+          <t>Amennda</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=211</t>
+          <t>Pg.Edicao.php?Codigo=433</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>844.106.049-53</t>
+          <t>400.637.918-89</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R$ 124,32</t>
+          <t>R$ 238,00</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 2 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -1499,7 +1494,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1507,25 +1502,25 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aretusa Cigana</t>
+          <t>Ametista</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=157</t>
+          <t>Pg.Edicao.php?Codigo=387</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>063.416.498-86</t>
+          <t>080.373.609-62</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>R$ 71,08</t>
+          <t>R$ 473,60</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1553,7 +1548,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1561,32 +1556,31 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Artemis</t>
+          <t>Amisha Cigana</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=164</t>
+          <t>Pg.Edicao.php?Codigo=278</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>105.329.709-26</t>
+          <t>239.609.508-02</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R$ 31,20</t>
+          <t>R$ 281,60</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 11 segundos</t>
+          <t>Em Atendimento</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -1608,7 +1602,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1616,31 +1610,31 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Asa Mística</t>
+          <t>Ana D´Oxum</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=201</t>
+          <t>Pg.Edicao.php?Codigo=313</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>578.217.390-49</t>
+          <t>427.253.498-00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>R$ 470,96</t>
+          <t>R$ 237,60</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Ocupado</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -1662,7 +1656,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1670,32 +1664,31 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aurélia</t>
+          <t>Ananda Flor</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=207</t>
+          <t>Pg.Edicao.php?Codigo=372</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>154.111.998-32</t>
+          <t>318.212.428-58</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>R$ 261,56</t>
+          <t>R$ 165,12</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 2 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -1717,7 +1710,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1725,32 +1718,31 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ava Faro</t>
+          <t>Anaya</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=183</t>
+          <t>Pg.Edicao.php?Codigo=133</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>839.062.159-20</t>
+          <t>341.635.858-93</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>R$ 44,72</t>
+          <t>R$ 662,40</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 2 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -1772,7 +1764,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1780,31 +1772,32 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Aylla</t>
+          <t>Angel Cigano</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=18</t>
+          <t>Pg.Edicao.php?Codigo=336</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>520.992.078-01</t>
+          <t>332.179.498-54</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R$ 97,00</t>
+          <t>R$ 230,40</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 1 segundos</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -1826,7 +1819,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1834,25 +1827,25 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bruxa Agnes</t>
+          <t>Angelina Vidente</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=144</t>
+          <t>Pg.Edicao.php?Codigo=411</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>004.295.250-60</t>
+          <t>731.265.861-04</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R$ 139,68</t>
+          <t>R$ 308,00</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1880,7 +1873,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1888,25 +1881,25 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bruxa Allana</t>
+          <t>Antonella</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=209</t>
+          <t>Pg.Edicao.php?Codigo=146</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>343.678.880-53</t>
+          <t>218.989.348-86</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R$ 0,88</t>
+          <t>R$ 368,00</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1934,7 +1927,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1942,25 +1935,25 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bruxa Athena</t>
+          <t>Anye</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=145</t>
+          <t>Pg.Edicao.php?Codigo=400</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>357.234.208-28</t>
+          <t>400.637.918-89</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>R$ 476,64</t>
+          <t>R$ 20,80</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1988,7 +1981,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1996,31 +1989,32 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bruxa Celeste</t>
+          <t>Aristóteles</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=98</t>
+          <t>Pg.Edicao.php?Codigo=285</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>444.277.598-23</t>
+          <t>138.057.576-11</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>R$ 32,64</t>
+          <t>R$ 107,20</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 9 segundos</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2042,7 +2036,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -2050,32 +2044,31 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Bruxa Zoraide</t>
+          <t>Artemio</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=202</t>
+          <t>Pg.Edicao.php?Codigo=435</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>326.854.768-06</t>
+          <t>179.956.907-11</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>R$ 82,68</t>
+          <t>R$ 350,00</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 0 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2097,7 +2090,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -2105,25 +2098,25 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Bruxo do Lodo</t>
+          <t>Ashanty D´Oyá</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=214</t>
+          <t>Pg.Edicao.php?Codigo=169</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>577.198.268-12</t>
+          <t>226.786.878-48</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>R$ 63,96</t>
+          <t>R$ 156,00</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2151,7 +2144,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -2159,25 +2152,25 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Carmencita</t>
+          <t>Ashia</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=56</t>
+          <t>Pg.Edicao.php?Codigo=346</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>833.172.877-72</t>
+          <t>469.599.548-43</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>R$ 338,88</t>
+          <t>R$ 95,60</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
@@ -2205,7 +2198,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -2213,31 +2206,31 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Castiel</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=29</t>
+          <t>Pg.Edicao.php?Codigo=347</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>341.635.858-93</t>
+          <t>109.247.989-98</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>R$ 174,24</t>
+          <t>R$ 380,40</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Ocupado</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -2259,7 +2252,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -2267,25 +2260,25 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>César</t>
+          <t>Azira de Oya</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=25</t>
+          <t>Pg.Edicao.php?Codigo=33</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>135.629.258-59</t>
+          <t>031.637.788-01</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>R$ 44,16</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -2313,7 +2306,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -2321,25 +2314,25 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cigana Alzira</t>
+          <t>Bábà Hércules</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=198</t>
+          <t>Pg.Edicao.php?Codigo=424</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>193.909.028-86</t>
+          <t>399.267.818-02</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R$ 57,12</t>
+          <t>R$ 54,80</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
@@ -2367,7 +2360,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -2375,25 +2368,25 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cigana Ana</t>
+          <t>Bel</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=138</t>
+          <t>Pg.Edicao.php?Codigo=51</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>704.732.282-54</t>
+          <t>275.114.678-30</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R$ 70,70</t>
+          <t>R$ 499,20</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
@@ -2421,7 +2414,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -2429,25 +2422,25 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cigana Angel</t>
+          <t>BellaDonna</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=220</t>
+          <t>Pg.Edicao.php?Codigo=442</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>472.320.688-40</t>
+          <t>861.369.090-49</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>R$ 35,04</t>
+          <t>R$ 400,80</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
@@ -2475,7 +2468,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -2483,25 +2476,25 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cigana Carmem</t>
+          <t>Bianca Médium</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=78</t>
+          <t>Pg.Edicao.php?Codigo=448</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>904.393.251-53</t>
+          <t>006.877.098-73</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>R$ 43,20</t>
+          <t>R$ 223,20</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
@@ -2529,7 +2522,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -2537,25 +2530,25 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cigana Clara</t>
+          <t>Bruxa Ariel</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=194</t>
+          <t>Pg.Edicao.php?Codigo=305</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>427.253.498-00</t>
+          <t>384.172.508-24</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R$ 36,00</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -2583,7 +2576,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -2591,25 +2584,25 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cigana Clarissa</t>
+          <t>Bruxa Fortune</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=58</t>
+          <t>Pg.Edicao.php?Codigo=335</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>224.996.348-71</t>
+          <t>073.378.647-28</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R$ 94,08</t>
+          <t>R$ 90,40</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2637,7 +2630,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -2645,25 +2638,25 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cigana Cristal</t>
+          <t>Bruxa Luz</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=31</t>
+          <t>Pg.Edicao.php?Codigo=260</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>514.672.528-40</t>
+          <t>014.304.290-46</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R$ 89,76</t>
+          <t>R$ 143,60</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -2692,7 +2685,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -2700,31 +2693,32 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cigana Delins</t>
+          <t>Calíope</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=128</t>
+          <t>Pg.Edicao.php?Codigo=438</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>367.219.298-80</t>
+          <t>041.449.259-51</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>R$ 39,84</t>
+          <t>R$ 569,20</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 9 segundos</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -2746,7 +2740,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -2754,31 +2748,32 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cigana Estrela da Noite</t>
+          <t>Cartomante Padilha</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=191</t>
+          <t>Pg.Edicao.php?Codigo=360</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>291.479.608-09</t>
+          <t>457.208.028-35</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>R$ 41,28</t>
+          <t>R$ 429,20</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 0 segundos</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -2800,7 +2795,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -2808,25 +2803,25 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cigana Helena</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=23</t>
+          <t>Pg.Edicao.php?Codigo=242</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>420.097.118-66</t>
+          <t>343.850.048-54</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 388,00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -2854,7 +2849,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -2862,32 +2857,31 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cigana Rosa</t>
+          <t>Cigana Afrodite</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=182</t>
+          <t>Pg.Edicao.php?Codigo=326</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>230.952.148-55</t>
+          <t>435.504.098-42</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>R$ 28,80</t>
+          <t>R$ 273,20</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -2909,7 +2903,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -2917,25 +2911,25 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cigana Sarah</t>
+          <t>Cigana Andressa</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=193</t>
+          <t>Pg.Edicao.php?Codigo=412</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>157.707.058-50</t>
+          <t>138.380.366-89</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>R$ 24,00</t>
+          <t>R$ 24,40</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
@@ -2963,7 +2957,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -2971,25 +2965,25 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cigana Sarita</t>
+          <t>Cigana Artemis</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=197</t>
+          <t>Pg.Edicao.php?Codigo=211</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>177.247.627-75</t>
+          <t>699.124.241-15</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 142,88</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3017,7 +3011,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -3025,25 +3019,25 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cigana Sophia</t>
+          <t>Cigana Clara</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=167</t>
+          <t>Pg.Edicao.php?Codigo=323</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>282.460.278-32</t>
+          <t>400.637.918-89</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>R$ 7,20</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -3071,7 +3065,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -3079,25 +3073,25 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cigana Sulamita</t>
+          <t>Cigana da Noite</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=203</t>
+          <t>Pg.Edicao.php?Codigo=405</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>047.921.459-02</t>
+          <t>291.479.608-09</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>R$ 4,48</t>
+          <t>R$ 156,00</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3125,7 +3119,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -3133,25 +3127,25 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cigana Tamirez</t>
+          <t>Cigana Dara</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=196</t>
+          <t>Pg.Edicao.php?Codigo=157</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>128.576.748-99</t>
+          <t>217.578.898-92</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>R$ 2,24</t>
+          <t>R$ 2.100,40</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3179,7 +3173,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -3187,19 +3181,19 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cigana Zaylla</t>
+          <t>Cigana do Amor</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=153</t>
+          <t>Pg.Edicao.php?Codigo=379</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>269.375.448-80</t>
+          <t>169.284.756-25</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -3233,7 +3227,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -3241,25 +3235,25 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cigano Ameo</t>
+          <t>Cigana do Ouro</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=190</t>
+          <t>Pg.Edicao.php?Codigo=345</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>179.956.907-11</t>
+          <t>163.816.018-09</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>R$ 38,88</t>
+          <t>R$ 227,60</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3287,7 +3281,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -3295,25 +3289,25 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cigano Belmiro</t>
+          <t>Cigana D´Ypondá</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=71</t>
+          <t>Pg.Edicao.php?Codigo=368</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>050.698.125-80</t>
+          <t>090.151.501-92</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>R$ 225,60</t>
+          <t>R$ 162,40</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
@@ -3341,7 +3335,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -3349,25 +3343,25 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cigano Paulo</t>
+          <t>Cigana Elisa</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=149</t>
+          <t>Pg.Edicao.php?Codigo=271</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>060.041.077-35</t>
+          <t>395.446.878-66</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>R$ 117,76</t>
+          <t>R$ 976,80</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3395,7 +3389,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -3403,32 +3397,31 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cigano Tássio</t>
+          <t>Cigana Estrela</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=218</t>
+          <t>Pg.Edicao.php?Codigo=410</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>092.809.268-29</t>
+          <t>381.683.658-52</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>R$ 63,00</t>
+          <t>R$ 103,20</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3450,7 +3443,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -3458,19 +3451,19 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cigano Yaron</t>
+          <t>Cigana Holanda</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=216</t>
+          <t>Pg.Edicao.php?Codigo=365</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>421.651.898-29</t>
+          <t>718.258.034-98</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -3504,7 +3497,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -3512,21 +3505,25 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Consultas Avaliativas</t>
+          <t>Cigana Iris</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=19</t>
+          <t>Pg.Edicao.php?Codigo=437</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>091.851.919-57</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>R$ -3,50</t>
+          <t>R$ 15,60</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
@@ -3554,7 +3551,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -3562,25 +3559,25 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Dalila</t>
+          <t>Cigana Juanita</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=206</t>
+          <t>Pg.Edicao.php?Codigo=403</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>109.247.989-98</t>
+          <t>047.921.459-02</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>R$ 30,24</t>
+          <t>R$ 4,80</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
@@ -3608,7 +3605,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -3616,32 +3613,31 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Elisa de Iansã</t>
+          <t>Cigana Judith</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=185</t>
+          <t>Pg.Edicao.php?Codigo=343</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>044.156.997-82</t>
+          <t>421.651.898-29</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>R$ 105,60</t>
+          <t>R$ 100,00</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 0 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3663,7 +3659,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -3671,25 +3667,25 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Gael de Oxossi</t>
+          <t>Cigana Jussara</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=213</t>
+          <t>Pg.Edicao.php?Codigo=219</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>125.447.276-24</t>
+          <t>333.468.258-76</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>R$ 13,00</t>
+          <t>R$ 404,80</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
@@ -3717,7 +3713,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -3725,32 +3721,31 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Inaê</t>
+          <t>Cigana Kali</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=28</t>
+          <t>Pg.Edicao.php?Codigo=282</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>140.003.00</t>
+          <t>503.311.468-94</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>R$ 152,36</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 5 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -3772,7 +3767,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -3780,25 +3775,25 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Luna Cigana</t>
+          <t>Cigana Kiara</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=188</t>
+          <t>Pg.Edicao.php?Codigo=220</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>103.372.017-81</t>
+          <t>103.688.977-70</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>R$ 4,32</t>
+          <t>R$ 1.098,40</t>
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
@@ -3826,7 +3821,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -3834,25 +3829,25 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Maribel Cigana</t>
+          <t>Cigana Lara</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=208</t>
+          <t>Pg.Edicao.php?Codigo=327</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>469.599.548-43</t>
+          <t>395.446.868-94</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>R$ 40,32</t>
+          <t>R$ 827,20</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -3880,7 +3875,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -3888,32 +3883,31 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Matias</t>
+          <t>Cigana Lilith</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=215</t>
+          <t>Pg.Edicao.php?Codigo=357</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>360.387.948-16</t>
+          <t>104.827.449-79</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>R$ 65,00</t>
+          <t>R$ 117,20</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 10 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -3935,7 +3929,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -3943,32 +3937,31 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Mercúrio</t>
+          <t>Cigana Lua Negra</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=199</t>
+          <t>Pg.Edicao.php?Codigo=201</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>341.618.268-50</t>
+          <t>019.241.709-65</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>R$ 56,68</t>
+          <t>R$ 137,20</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 6 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -3990,7 +3983,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -3998,25 +3991,25 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Merlia</t>
+          <t>Cigana Luz</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=60</t>
+          <t>Pg.Edicao.php?Codigo=28</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>107.833.089-14</t>
+          <t>520.992.078-01</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>R$ 144,56</t>
+          <t>R$ 96,40</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
@@ -4044,7 +4037,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -4052,25 +4045,25 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Mística Brigitte</t>
+          <t>Cigana Mirian</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=217</t>
+          <t>Pg.Edicao.php?Codigo=166</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>454.952.008-61</t>
+          <t>224.996.348-71</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>R$ 79,68</t>
+          <t>R$ 221,20</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
@@ -4098,7 +4091,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -4106,32 +4099,31 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Mística Hanna</t>
+          <t>Cigana Nyara</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=160</t>
+          <t>Pg.Edicao.php?Codigo=53</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>713.543.1</t>
+          <t>420.097.118-66</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>R$ 262,96</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 0 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4153,7 +4145,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -4161,25 +4153,25 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Mística Kally</t>
+          <t>Cigana Ohana</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=142</t>
+          <t>Pg.Edicao.php?Codigo=395</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>746.674.400-15</t>
+          <t>446.754.958-77</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 166,80</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -4207,7 +4199,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -4215,31 +4207,32 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Mística Pandora</t>
+          <t>Cigana Rosita</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=110</t>
+          <t>Pg.Edicao.php?Codigo=401</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>443.012.598-80</t>
+          <t>056.593.327-22</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 295,20</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Offline</t>
+          <t>Online, 
+                                    Última Checagem á 110 segundos</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
@@ -4261,7 +4254,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -4269,25 +4262,25 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Cigana Rubi</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=112</t>
+          <t>Pg.Edicao.php?Codigo=24</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>333.468.258-76</t>
+          <t>420.097.118-66</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>R$ 272,48</t>
+          <t>R$ 0,00</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
@@ -4315,7 +4308,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -4323,25 +4316,25 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Natasha Cigana</t>
+          <t>Cigana Sarah</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=102</t>
+          <t>Pg.Edicao.php?Codigo=205</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>131.946.738-58</t>
+          <t>839.076.610-87</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>R$ 144,56</t>
+          <t>R$ 135,60</t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
@@ -4369,7 +4362,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -4377,25 +4370,25 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Rosa Maria</t>
+          <t>Cigana Serena</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=109</t>
+          <t>Pg.Edicao.php?Codigo=415</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>104.767.004-69</t>
+          <t>903.303.907-91</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>R$ 474,76</t>
+          <t>R$ 37,20</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
@@ -4423,7 +4416,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -4431,25 +4424,25 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Safira</t>
+          <t>Cigana Shanty</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=21</t>
+          <t>Pg.Edicao.php?Codigo=413</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>128.318.037-56</t>
+          <t>331.963.768-18</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>R$ 92,64</t>
+          <t>R$ 107,20</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
@@ -4477,7 +4470,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -4485,32 +4478,31 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sr. Bara</t>
+          <t>Cigana Wlavira</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=210</t>
+          <t>Pg.Edicao.php?Codigo=396</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>334.089.248-21</t>
+          <t>339.200.285-20</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>R$ 61,44</t>
+          <t>R$ 258,00</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 9 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4532,7 +4524,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -4540,32 +4532,32 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Taróloga Imperatriz</t>
+          <t>Cigana Zafira</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=222</t>
+          <t>Pg.Edicao.php?Codigo=210</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>319.428.618-85</t>
+          <t>111.993.457-50</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>R$ 32,48</t>
+          <t>R$ 1.175,20</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
           <t>Online, 
-                                    Última Checagem á 9 segundos</t>
+                                    Última Checagem á 4 segundos</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -4587,7 +4579,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -4595,21 +4587,25 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>testeatt1 - NÃO REMOVER</t>
+          <t>Cigano Eragon</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=32</t>
+          <t>Pg.Edicao.php?Codigo=350</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>188.603.338-22</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>R$ -12,00</t>
+          <t>R$ 24,80</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -4637,7 +4633,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -4645,31 +4641,31 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Vênus</t>
+          <t>Cigano Eros</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=155</t>
+          <t>Pg.Edicao.php?Codigo=339</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>038.066.452-64</t>
+          <t>528.535.238-02</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>R$ 43,85</t>
+          <t>R$ 59,20</t>
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Ocupado</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -4691,7 +4687,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -4699,32 +4695,31 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Vidente Cassandra</t>
+          <t>Cigano Higor</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=192</t>
+          <t>Pg.Edicao.php?Codigo=342</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>378.944.738-20</t>
+          <t>111.993.457-50</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>R$ 237,12</t>
+          <t>R$ 328,00</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Online, 
-                                    Última Checagem á 3 segundos</t>
+          <t>Offline</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -4746,7 +4741,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -4754,25 +4749,25 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Xamã Tarólogo</t>
+          <t>Cigano Maximmus</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Pg.Edicao.php?Codigo=117</t>
+          <t>Pg.Edicao.php?Codigo=428</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>180.743.808-23</t>
+          <t>213.619.978-18</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>R$ 38,48</t>
+          <t>R$ 49,60</t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
@@ -4797,6 +4792,3140 @@
       </c>
       <c r="T80" t="inlineStr"/>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Cigano Tarik</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=355</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>138.057.766-75</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Cleópatra</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=370</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>469.272.278-90</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>R$ 104,00</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Dafne</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=380</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>400.637.918-89</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Dalila</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=362</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>070.343.957-05</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>R$ 105,20</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Dama</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=408</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>317.770.208-08</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>R$ 20,40</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Davina</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=425</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>453.094.748-38</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>R$ 163,60</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Dionisio Cigano</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=385</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>163.050.176-03</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>R$ 154,32</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Dona Mariana</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=383</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>704.732.282-54</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>R$ 448,40</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 9 segundos</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Eremita Lunar</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=414</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>109.433.009-40</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>R$ 44,40</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Esmè</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=430</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>456.893.368-40</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>R$ 123,60</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Esmeralda</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=224</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>019.035.750-95</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>R$ 225,60</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Esther</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=262</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>165.876.088-33</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>R$ 1.690,00</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Estrela de Iemanjá</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=117</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>006.877.098-73</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>R$ 290,00</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Flor de Liz</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=429</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>361.394.948-26</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>R$ 19,60</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Florisbela</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=179</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>446.754.958-77</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>R$ 138,80</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Indiara</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=422</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>151.978.928-97</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>R$ 368,80</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Jasmyne</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=439</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>324.505.018-60</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>R$ 146,00</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Jorge D´ Logun Edé</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=399</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>371.242.198-25</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Katarina de Ogunté</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=208</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>444.089.138-12</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>R$ 262,00</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 7 segundos</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Kauany Oxum</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=61</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>031.637.788-01</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Kênia Taróloga</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=423</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>011.487.248-18</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>R$ 135,60</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Kessia</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=194</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>224.996.348-71</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>R$ 167,20</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Khamael</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=434</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>063.586.385-56</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>R$ 600,00</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Lívia</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=245</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>074.209.057-46</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>R$ 190,00</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Llana</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=427</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>160.152.416-16</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>R$ 57,20</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Luna</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=359</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>038.066.452-64</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>R$ 84,40</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 9 segundos</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Luna Mystic</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=421</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>183.070.347-10</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>R$ 57,20</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Madalena Cigana</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=114</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>377.875.738-56</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>R$ 266,00</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Magnólia</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=316</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>360.387.948-16</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>R$ 240,80</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Maria da Paz</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=30</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>053.249.17</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Maya</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=261</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>333.985.298-79</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>R$ 216,24</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Meredith</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=390</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>054.335.118-12</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>R$ 407,20</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Minerva</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=377</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>369.267.558-50</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Místico Yago</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=436</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>248.754.848-79</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>R$ 158,00</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Morgana</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=125</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>040.725.688-13</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>R$ 310,80</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 2 segundos</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Natasha</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=337</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>131.946.738-58</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>R$ 358,00</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 106 segundos</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Odara</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=186</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>347.851.658-71</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>R$ 621,20</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Paloma</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=328</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>018.457.950-32</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>R$ 155,20</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Pandora</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=419</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>101.519.816-39</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>R$ 145,60</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Rosa Mistica</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=318</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>098.092.682-9</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>R$ 115,60</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Rosa Vermelha</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=443</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>454.952.008-61</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>R$ 428,00</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Rubi</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=388</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>420.097.118-66</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>R$ 1,60</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Selton</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=314</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>135.629.258-59</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>R$ 52,80</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Sensitiva Tereza</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=449</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>170.349.216-10</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>R$ 121,60</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Seraphina Malga</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=378</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>944.666.709-78</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>R$ 597,44</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Shaphira Cigana</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=358</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>095.272.348-40</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>R$ 283,20</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Stella</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=283</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>022.871.465-63</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>R$ 650,40</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Taróloga Esperança</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=426</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>319.428.618-85</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>R$ 268,64</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Online, 
+                                    Última Checagem á 1 segundos</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>testeatt1</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=1</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Thoth</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=254</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>341.618.268-50</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>R$ 238,00</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Van de Luz</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=431</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>075.687.955-86</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>R$ 54,00</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Viviana</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=406</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>044.156.997-82</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>R$ 88,00</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Walkiria</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=445</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>892.859.640-87</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>R$ 354,80</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Em Atendimento</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Wilka</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=34</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>400.637.918-89</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Wladimir</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=38</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>520.992.078-01</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>R$ 0,00</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Xamã Kanaã</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=183</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>293.767.728-22</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>R$ 335,20</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Yvetta Dante</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=444</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>106.705.107-42</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>R$ 6,00</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Zaylla</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Pg.Edicao.php?Codigo=432</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>269.375.448-80</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>R$ 57,60</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Offline</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>Desconectar
+Deletar
+Créditos
+Log de Acessos
+Log de Status</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -1882,7 +1882,7 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R$ 38,88</t>
+          <t>R$ 42,72</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2272,7 +2272,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R$ 349,44</t>
+          <t>R$ 362,32</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>

--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -510,7 +510,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R$ 290,16</t>
+          <t>R$ 344,24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -540,7 +540,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R$ 97,00</t>
+          <t>R$ 121,96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -596,7 +596,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R$ 92,64</t>
+          <t>R$ 108,00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -686,7 +686,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R$ 835,64</t>
+          <t>R$ 872,56</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -716,7 +716,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R$ 161,72</t>
+          <t>R$ 170,04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -746,7 +746,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R$ 207,84</t>
+          <t>R$ 238,56</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -892,7 +892,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R$ 238,68</t>
+          <t>R$ 246,48</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -922,7 +922,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R$ 234,60</t>
+          <t>R$ 241,80</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R$ 69,60</t>
+          <t>R$ 85,92</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1072,7 +1072,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R$ 482,56</t>
+          <t>R$ 572,52</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1222,7 +1222,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R$ 1.085,44</t>
+          <t>R$ 1.143,04</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R$ 139,68</t>
+          <t>R$ 146,88</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1372,7 +1372,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R$ 513,36</t>
+          <t>R$ 537,12</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1402,7 +1402,7 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R$ 117,76</t>
+          <t>R$ 126,08</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -1492,7 +1492,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R$ 136,86</t>
+          <t>R$ 168,62</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -1552,7 +1552,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R$ 356,92</t>
+          <t>R$ 427,22</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R$ 199,68</t>
+          <t>R$ 207,84</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -1762,7 +1762,7 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R$ 44,72</t>
+          <t>R$ 59,28</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -1912,7 +1912,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R$ 42,24</t>
+          <t>R$ 45,60</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -1942,7 +1942,7 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R$ 276,00</t>
+          <t>R$ 315,36</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R$ 2,24</t>
+          <t>R$ 5,60</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -2092,7 +2092,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R$ 73,92</t>
+          <t>R$ 84,48</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2182,7 +2182,7 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R$ 497,28</t>
+          <t>R$ 513,52</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -2272,7 +2272,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R$ 362,32</t>
+          <t>R$ 376,32</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R$ 30,24</t>
+          <t>R$ 160,16</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -2362,7 +2362,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R$ 261,56</t>
+          <t>R$ 269,88</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -2602,7 +2602,7 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R$ 65,00</t>
+          <t>R$ 71,00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -2692,7 +2692,7 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>R$ 63,00</t>
+          <t>R$ 70,00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -2812,7 +2812,7 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>R$ 52,08</t>
+          <t>R$ 67,20</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -2842,7 +2842,7 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>R$ 0,00</t>
+          <t>R$ 23,92</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>

--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -2842,7 +2842,7 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>R$ 23,92</t>
+          <t>R$ 31,72</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
